--- a/XCodeData.xlsx
+++ b/XCodeData.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devanshagrawal/GithubRepos/MindTheGapPaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EFD7D3-48BE-CA4C-9398-B6811BEAAB70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830912A3-1A57-0147-A6D7-984918E9C329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{C27E002A-8B53-AA48-92C9-2A365D683D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -424,7 +423,7 @@
   <dimension ref="A1:E601"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="A597" sqref="A597"/>
+      <selection activeCell="H568" sqref="H568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10653,6677 +10652,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A114379D-90A8-E44F-BC3A-B14B023892A9}">
-  <dimension ref="A1:H301"/>
-  <sheetViews>
-    <sheetView topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="B264" sqref="B264"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="str">
-        <f>Sheet1!A1</f>
-        <v>Device Pair</v>
-      </c>
-      <c r="B1" t="str">
-        <f>Sheet1!B1</f>
-        <v>Type</v>
-      </c>
-      <c r="C1" t="str">
-        <f>Sheet1!C1</f>
-        <v>2.0m</v>
-      </c>
-      <c r="D1" t="str">
-        <f>Sheet1!D1</f>
-        <v>1.5m</v>
-      </c>
-      <c r="E1" t="str">
-        <f>Sheet1!E1</f>
-        <v>1.0m</v>
-      </c>
-      <c r="F1">
-        <f>AVERAGE(C:C)</f>
-        <v>2.0870461934027782</v>
-      </c>
-      <c r="G1">
-        <f t="shared" ref="G1:H1" si="0">AVERAGE(D:D)</f>
-        <v>1.5724392950000017</v>
-      </c>
-      <c r="H1">
-        <f t="shared" si="0"/>
-        <v>1.0838666232986116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>Sheet1!A2</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B2" t="str">
-        <f>Sheet1!B2</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C2">
-        <f>IF(Sheet1!C2&lt;4,Sheet1!C2,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D2">
-        <f>IF(Sheet1!D2&lt;3,Sheet1!D2,"")</f>
-        <v>1.4005609000000001</v>
-      </c>
-      <c r="E2">
-        <f>IF(Sheet1!E2&lt;2,Sheet1!E2,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-      <c r="F2">
-        <f>STDEV(C:C)</f>
-        <v>0.13911845680371571</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:H2" si="1">STDEV(D:D)</f>
-        <v>0.11793072483326991</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="1"/>
-        <v>0.11101122906679065</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>Sheet1!A3</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B3" t="str">
-        <f>Sheet1!B3</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C3">
-        <f>IF(Sheet1!C3&lt;4,Sheet1!C3,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D3">
-        <f>IF(Sheet1!D3&lt;3,Sheet1!D3,"")</f>
-        <v>1.4005609000000001</v>
-      </c>
-      <c r="E3">
-        <f>IF(Sheet1!E3&lt;2,Sheet1!E3,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f>Sheet1!A4</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B4" t="str">
-        <f>Sheet1!B4</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C4">
-        <f>IF(Sheet1!C4&lt;4,Sheet1!C4,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D4">
-        <f>IF(Sheet1!D4&lt;3,Sheet1!D4,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E4">
-        <f>IF(Sheet1!E4&lt;2,Sheet1!E4,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f>Sheet1!A5</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B5" t="str">
-        <f>Sheet1!B5</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C5">
-        <f>IF(Sheet1!C5&lt;4,Sheet1!C5,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D5">
-        <f>IF(Sheet1!D5&lt;3,Sheet1!D5,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E5">
-        <f>IF(Sheet1!E5&lt;2,Sheet1!E5,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f>Sheet1!A6</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B6" t="str">
-        <f>Sheet1!B6</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C6">
-        <f>IF(Sheet1!C6&lt;4,Sheet1!C6,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D6">
-        <f>IF(Sheet1!D6&lt;3,Sheet1!D6,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E6">
-        <f>IF(Sheet1!E6&lt;2,Sheet1!E6,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f>Sheet1!A7</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B7" t="str">
-        <f>Sheet1!B7</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C7">
-        <f>IF(Sheet1!C7&lt;4,Sheet1!C7,"")</f>
-        <v>2.0293841000000001</v>
-      </c>
-      <c r="D7">
-        <f>IF(Sheet1!D7&lt;3,Sheet1!D7,"")</f>
-        <v>1.4291438000000001</v>
-      </c>
-      <c r="E7">
-        <f>IF(Sheet1!E7&lt;2,Sheet1!E7,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f>Sheet1!A8</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B8" t="str">
-        <f>Sheet1!B8</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C8">
-        <f>IF(Sheet1!C8&lt;4,Sheet1!C8,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D8">
-        <f>IF(Sheet1!D8&lt;3,Sheet1!D8,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E8">
-        <f>IF(Sheet1!E8&lt;2,Sheet1!E8,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f>Sheet1!A9</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B9" t="str">
-        <f>Sheet1!B9</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C9">
-        <f>IF(Sheet1!C9&lt;4,Sheet1!C9,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D9">
-        <f>IF(Sheet1!D9&lt;3,Sheet1!D9,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E9">
-        <f>IF(Sheet1!E9&lt;2,Sheet1!E9,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <f>Sheet1!A10</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B10" t="str">
-        <f>Sheet1!B10</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C10">
-        <f>IF(Sheet1!C10&lt;4,Sheet1!C10,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D10">
-        <f>IF(Sheet1!D10&lt;3,Sheet1!D10,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E10">
-        <f>IF(Sheet1!E10&lt;2,Sheet1!E10,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f>Sheet1!A11</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B11" t="str">
-        <f>Sheet1!B11</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C11">
-        <f>IF(Sheet1!C11&lt;4,Sheet1!C11,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D11">
-        <f>IF(Sheet1!D11&lt;3,Sheet1!D11,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E11">
-        <f>IF(Sheet1!E11&lt;2,Sheet1!E11,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f>Sheet1!A12</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B12" t="str">
-        <f>Sheet1!B12</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C12">
-        <f>IF(Sheet1!C12&lt;4,Sheet1!C12,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D12">
-        <f>IF(Sheet1!D12&lt;3,Sheet1!D12,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E12">
-        <f>IF(Sheet1!E12&lt;2,Sheet1!E12,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f>Sheet1!A13</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B13" t="str">
-        <f>Sheet1!B13</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C13">
-        <f>IF(Sheet1!C13&lt;4,Sheet1!C13,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D13">
-        <f>IF(Sheet1!D13&lt;3,Sheet1!D13,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E13">
-        <f>IF(Sheet1!E13&lt;2,Sheet1!E13,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f>Sheet1!A14</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B14" t="str">
-        <f>Sheet1!B14</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C14">
-        <f>IF(Sheet1!C14&lt;4,Sheet1!C14,"")</f>
-        <v>1.8864696999999999</v>
-      </c>
-      <c r="D14">
-        <f>IF(Sheet1!D14&lt;3,Sheet1!D14,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E14">
-        <f>IF(Sheet1!E14&lt;2,Sheet1!E14,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f>Sheet1!A15</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B15" t="str">
-        <f>Sheet1!B15</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C15">
-        <f>IF(Sheet1!C15&lt;4,Sheet1!C15,"")</f>
-        <v>1.8864696999999999</v>
-      </c>
-      <c r="D15">
-        <f>IF(Sheet1!D15&lt;3,Sheet1!D15,"")</f>
-        <v>1.4005609000000001</v>
-      </c>
-      <c r="E15">
-        <f>IF(Sheet1!E15&lt;2,Sheet1!E15,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f>Sheet1!A16</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B16" t="str">
-        <f>Sheet1!B16</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C16">
-        <f>IF(Sheet1!C16&lt;4,Sheet1!C16,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D16">
-        <f>IF(Sheet1!D16&lt;3,Sheet1!D16,"")</f>
-        <v>1.4291438000000001</v>
-      </c>
-      <c r="E16">
-        <f>IF(Sheet1!E16&lt;2,Sheet1!E16,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <f>Sheet1!A17</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B17" t="str">
-        <f>Sheet1!B17</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C17">
-        <f>IF(Sheet1!C17&lt;4,Sheet1!C17,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D17">
-        <f>IF(Sheet1!D17&lt;3,Sheet1!D17,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E17" t="str">
-        <f>IF(Sheet1!E17&lt;2,Sheet1!E17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f>Sheet1!A18</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B18" t="str">
-        <f>Sheet1!B18</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C18">
-        <f>IF(Sheet1!C18&lt;4,Sheet1!C18,"")</f>
-        <v>2.0293841000000001</v>
-      </c>
-      <c r="D18">
-        <f>IF(Sheet1!D18&lt;3,Sheet1!D18,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E18" t="str">
-        <f>IF(Sheet1!E18&lt;2,Sheet1!E18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
-        <f>Sheet1!A19</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B19" t="str">
-        <f>Sheet1!B19</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C19" t="str">
-        <f>IF(Sheet1!C19&lt;4,Sheet1!C19,"")</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>IF(Sheet1!D19&lt;3,Sheet1!D19,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E19">
-        <f>IF(Sheet1!E19&lt;2,Sheet1!E19,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <f>Sheet1!A20</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B20" t="str">
-        <f>Sheet1!B20</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C20" t="str">
-        <f>IF(Sheet1!C20&lt;4,Sheet1!C20,"")</f>
-        <v/>
-      </c>
-      <c r="D20">
-        <f>IF(Sheet1!D20&lt;3,Sheet1!D20,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E20">
-        <f>IF(Sheet1!E20&lt;2,Sheet1!E20,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
-        <f>Sheet1!A21</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B21" t="str">
-        <f>Sheet1!B21</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C21">
-        <f>IF(Sheet1!C21&lt;4,Sheet1!C21,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D21">
-        <f>IF(Sheet1!D21&lt;3,Sheet1!D21,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E21">
-        <f>IF(Sheet1!E21&lt;2,Sheet1!E21,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
-        <f>Sheet1!A22</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B22" t="str">
-        <f>Sheet1!B22</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C22">
-        <f>IF(Sheet1!C22&lt;4,Sheet1!C22,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D22">
-        <f>IF(Sheet1!D22&lt;3,Sheet1!D22,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E22">
-        <f>IF(Sheet1!E22&lt;2,Sheet1!E22,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="str">
-        <f>Sheet1!A23</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B23" t="str">
-        <f>Sheet1!B23</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C23">
-        <f>IF(Sheet1!C23&lt;4,Sheet1!C23,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D23">
-        <f>IF(Sheet1!D23&lt;3,Sheet1!D23,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E23">
-        <f>IF(Sheet1!E23&lt;2,Sheet1!E23,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="str">
-        <f>Sheet1!A24</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B24" t="str">
-        <f>Sheet1!B24</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C24">
-        <f>IF(Sheet1!C24&lt;4,Sheet1!C24,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D24">
-        <f>IF(Sheet1!D24&lt;3,Sheet1!D24,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E24">
-        <f>IF(Sheet1!E24&lt;2,Sheet1!E24,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="str">
-        <f>Sheet1!A25</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B25" t="str">
-        <f>Sheet1!B25</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C25">
-        <f>IF(Sheet1!C25&lt;4,Sheet1!C25,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D25">
-        <f>IF(Sheet1!D25&lt;3,Sheet1!D25,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E25">
-        <f>IF(Sheet1!E25&lt;2,Sheet1!E25,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
-        <f>Sheet1!A26</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B26" t="str">
-        <f>Sheet1!B26</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C26">
-        <f>IF(Sheet1!C26&lt;4,Sheet1!C26,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D26">
-        <f>IF(Sheet1!D26&lt;3,Sheet1!D26,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E26">
-        <f>IF(Sheet1!E26&lt;2,Sheet1!E26,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="str">
-        <f>Sheet1!A27</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B27" t="str">
-        <f>Sheet1!B27</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C27">
-        <f>IF(Sheet1!C27&lt;4,Sheet1!C27,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D27">
-        <f>IF(Sheet1!D27&lt;3,Sheet1!D27,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E27">
-        <f>IF(Sheet1!E27&lt;2,Sheet1!E27,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="str">
-        <f>Sheet1!A28</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B28" t="str">
-        <f>Sheet1!B28</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C28">
-        <f>IF(Sheet1!C28&lt;4,Sheet1!C28,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D28">
-        <f>IF(Sheet1!D28&lt;3,Sheet1!D28,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E28">
-        <f>IF(Sheet1!E28&lt;2,Sheet1!E28,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="str">
-        <f>Sheet1!A29</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B29" t="str">
-        <f>Sheet1!B29</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C29">
-        <f>IF(Sheet1!C29&lt;4,Sheet1!C29,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D29">
-        <f>IF(Sheet1!D29&lt;3,Sheet1!D29,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E29">
-        <f>IF(Sheet1!E29&lt;2,Sheet1!E29,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="str">
-        <f>Sheet1!A30</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B30" t="str">
-        <f>Sheet1!B30</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C30">
-        <f>IF(Sheet1!C30&lt;4,Sheet1!C30,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D30">
-        <f>IF(Sheet1!D30&lt;3,Sheet1!D30,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E30">
-        <f>IF(Sheet1!E30&lt;2,Sheet1!E30,"")</f>
-        <v>1.2004808</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="str">
-        <f>Sheet1!A31</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B31" t="str">
-        <f>Sheet1!B31</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C31">
-        <f>IF(Sheet1!C31&lt;4,Sheet1!C31,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D31">
-        <f>IF(Sheet1!D31&lt;3,Sheet1!D31,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E31">
-        <f>IF(Sheet1!E31&lt;2,Sheet1!E31,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="str">
-        <f>Sheet1!A32</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B32" t="str">
-        <f>Sheet1!B32</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C32">
-        <f>IF(Sheet1!C32&lt;4,Sheet1!C32,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D32">
-        <f>IF(Sheet1!D32&lt;3,Sheet1!D32,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E32" t="str">
-        <f>IF(Sheet1!E32&lt;2,Sheet1!E32,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="str">
-        <f>Sheet1!A33</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B33" t="str">
-        <f>Sheet1!B33</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C33">
-        <f>IF(Sheet1!C33&lt;4,Sheet1!C33,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D33">
-        <f>IF(Sheet1!D33&lt;3,Sheet1!D33,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E33">
-        <f>IF(Sheet1!E33&lt;2,Sheet1!E33,"")</f>
-        <v>0.94323486000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="str">
-        <f>Sheet1!A34</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B34" t="str">
-        <f>Sheet1!B34</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C34">
-        <f>IF(Sheet1!C34&lt;4,Sheet1!C34,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D34">
-        <f>IF(Sheet1!D34&lt;3,Sheet1!D34,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E34">
-        <f>IF(Sheet1!E34&lt;2,Sheet1!E34,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="str">
-        <f>Sheet1!A35</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B35" t="str">
-        <f>Sheet1!B35</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C35">
-        <f>IF(Sheet1!C35&lt;4,Sheet1!C35,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D35">
-        <f>IF(Sheet1!D35&lt;3,Sheet1!D35,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E35">
-        <f>IF(Sheet1!E35&lt;2,Sheet1!E35,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="str">
-        <f>Sheet1!A36</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B36" t="str">
-        <f>Sheet1!B36</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C36">
-        <f>IF(Sheet1!C36&lt;4,Sheet1!C36,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D36">
-        <f>IF(Sheet1!D36&lt;3,Sheet1!D36,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E36">
-        <f>IF(Sheet1!E36&lt;2,Sheet1!E36,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="str">
-        <f>Sheet1!A37</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B37" t="str">
-        <f>Sheet1!B37</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C37">
-        <f>IF(Sheet1!C37&lt;4,Sheet1!C37,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D37">
-        <f>IF(Sheet1!D37&lt;3,Sheet1!D37,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E37">
-        <f>IF(Sheet1!E37&lt;2,Sheet1!E37,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="str">
-        <f>Sheet1!A38</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B38" t="str">
-        <f>Sheet1!B38</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C38">
-        <f>IF(Sheet1!C38&lt;4,Sheet1!C38,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D38">
-        <f>IF(Sheet1!D38&lt;3,Sheet1!D38,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E38">
-        <f>IF(Sheet1!E38&lt;2,Sheet1!E38,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="str">
-        <f>Sheet1!A39</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B39" t="str">
-        <f>Sheet1!B39</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C39">
-        <f>IF(Sheet1!C39&lt;4,Sheet1!C39,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D39">
-        <f>IF(Sheet1!D39&lt;3,Sheet1!D39,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E39">
-        <f>IF(Sheet1!E39&lt;2,Sheet1!E39,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="str">
-        <f>Sheet1!A40</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B40" t="str">
-        <f>Sheet1!B40</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C40">
-        <f>IF(Sheet1!C40&lt;4,Sheet1!C40,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D40">
-        <f>IF(Sheet1!D40&lt;3,Sheet1!D40,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E40">
-        <f>IF(Sheet1!E40&lt;2,Sheet1!E40,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="str">
-        <f>Sheet1!A41</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B41" t="str">
-        <f>Sheet1!B41</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C41">
-        <f>IF(Sheet1!C41&lt;4,Sheet1!C41,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D41">
-        <f>IF(Sheet1!D41&lt;3,Sheet1!D41,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E41">
-        <f>IF(Sheet1!E41&lt;2,Sheet1!E41,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="str">
-        <f>Sheet1!A42</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B42" t="str">
-        <f>Sheet1!B42</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C42">
-        <f>IF(Sheet1!C42&lt;4,Sheet1!C42,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D42">
-        <f>IF(Sheet1!D42&lt;3,Sheet1!D42,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E42">
-        <f>IF(Sheet1!E42&lt;2,Sheet1!E42,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="str">
-        <f>Sheet1!A43</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B43" t="str">
-        <f>Sheet1!B43</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C43">
-        <f>IF(Sheet1!C43&lt;4,Sheet1!C43,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D43">
-        <f>IF(Sheet1!D43&lt;3,Sheet1!D43,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E43">
-        <f>IF(Sheet1!E43&lt;2,Sheet1!E43,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="str">
-        <f>Sheet1!A44</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B44" t="str">
-        <f>Sheet1!B44</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C44">
-        <f>IF(Sheet1!C44&lt;4,Sheet1!C44,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D44">
-        <f>IF(Sheet1!D44&lt;3,Sheet1!D44,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E44">
-        <f>IF(Sheet1!E44&lt;2,Sheet1!E44,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="str">
-        <f>Sheet1!A45</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B45" t="str">
-        <f>Sheet1!B45</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C45">
-        <f>IF(Sheet1!C45&lt;4,Sheet1!C45,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D45">
-        <f>IF(Sheet1!D45&lt;3,Sheet1!D45,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E45">
-        <f>IF(Sheet1!E45&lt;2,Sheet1!E45,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="str">
-        <f>Sheet1!A46</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B46" t="str">
-        <f>Sheet1!B46</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C46">
-        <f>IF(Sheet1!C46&lt;4,Sheet1!C46,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D46">
-        <f>IF(Sheet1!D46&lt;3,Sheet1!D46,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E46">
-        <f>IF(Sheet1!E46&lt;2,Sheet1!E46,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="str">
-        <f>Sheet1!A47</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B47" t="str">
-        <f>Sheet1!B47</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C47">
-        <f>IF(Sheet1!C47&lt;4,Sheet1!C47,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D47">
-        <f>IF(Sheet1!D47&lt;3,Sheet1!D47,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E47">
-        <f>IF(Sheet1!E47&lt;2,Sheet1!E47,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="str">
-        <f>Sheet1!A48</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B48" t="str">
-        <f>Sheet1!B48</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C48">
-        <f>IF(Sheet1!C48&lt;4,Sheet1!C48,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D48">
-        <f>IF(Sheet1!D48&lt;3,Sheet1!D48,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E48">
-        <f>IF(Sheet1!E48&lt;2,Sheet1!E48,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="str">
-        <f>Sheet1!A49</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B49" t="str">
-        <f>Sheet1!B49</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C49">
-        <f>IF(Sheet1!C49&lt;4,Sheet1!C49,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D49">
-        <f>IF(Sheet1!D49&lt;3,Sheet1!D49,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E49">
-        <f>IF(Sheet1!E49&lt;2,Sheet1!E49,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="str">
-        <f>Sheet1!A50</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B50" t="str">
-        <f>Sheet1!B50</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C50">
-        <f>IF(Sheet1!C50&lt;4,Sheet1!C50,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D50">
-        <f>IF(Sheet1!D50&lt;3,Sheet1!D50,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E50">
-        <f>IF(Sheet1!E50&lt;2,Sheet1!E50,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="str">
-        <f>Sheet1!A51</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B51" t="str">
-        <f>Sheet1!B51</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C51">
-        <f>IF(Sheet1!C51&lt;4,Sheet1!C51,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D51">
-        <f>IF(Sheet1!D51&lt;3,Sheet1!D51,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E51">
-        <f>IF(Sheet1!E51&lt;2,Sheet1!E51,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="str">
-        <f>Sheet1!A52</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B52" t="str">
-        <f>Sheet1!B52</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C52">
-        <f>IF(Sheet1!C52&lt;4,Sheet1!C52,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D52">
-        <f>IF(Sheet1!D52&lt;3,Sheet1!D52,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E52">
-        <f>IF(Sheet1!E52&lt;2,Sheet1!E52,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="str">
-        <f>Sheet1!A53</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B53" t="str">
-        <f>Sheet1!B53</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C53" t="str">
-        <f>IF(Sheet1!C53&lt;4,Sheet1!C53,"")</f>
-        <v/>
-      </c>
-      <c r="D53">
-        <f>IF(Sheet1!D53&lt;3,Sheet1!D53,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E53">
-        <f>IF(Sheet1!E53&lt;2,Sheet1!E53,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="str">
-        <f>Sheet1!A54</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B54" t="str">
-        <f>Sheet1!B54</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C54" t="str">
-        <f>IF(Sheet1!C54&lt;4,Sheet1!C54,"")</f>
-        <v/>
-      </c>
-      <c r="D54">
-        <f>IF(Sheet1!D54&lt;3,Sheet1!D54,"")</f>
-        <v>1.4291438000000001</v>
-      </c>
-      <c r="E54">
-        <f>IF(Sheet1!E54&lt;2,Sheet1!E54,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="str">
-        <f>Sheet1!A55</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B55" t="str">
-        <f>Sheet1!B55</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C55">
-        <f>IF(Sheet1!C55&lt;4,Sheet1!C55,"")</f>
-        <v>1.8864696999999999</v>
-      </c>
-      <c r="D55">
-        <f>IF(Sheet1!D55&lt;3,Sheet1!D55,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E55">
-        <f>IF(Sheet1!E55&lt;2,Sheet1!E55,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="str">
-        <f>Sheet1!A56</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B56" t="str">
-        <f>Sheet1!B56</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C56">
-        <f>IF(Sheet1!C56&lt;4,Sheet1!C56,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D56">
-        <f>IF(Sheet1!D56&lt;3,Sheet1!D56,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E56">
-        <f>IF(Sheet1!E56&lt;2,Sheet1!E56,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="str">
-        <f>Sheet1!A57</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B57" t="str">
-        <f>Sheet1!B57</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C57">
-        <f>IF(Sheet1!C57&lt;4,Sheet1!C57,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D57">
-        <f>IF(Sheet1!D57&lt;3,Sheet1!D57,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E57">
-        <f>IF(Sheet1!E57&lt;2,Sheet1!E57,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="str">
-        <f>Sheet1!A58</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B58" t="str">
-        <f>Sheet1!B58</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C58">
-        <f>IF(Sheet1!C58&lt;4,Sheet1!C58,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D58">
-        <f>IF(Sheet1!D58&lt;3,Sheet1!D58,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E58">
-        <f>IF(Sheet1!E58&lt;2,Sheet1!E58,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="str">
-        <f>Sheet1!A59</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B59" t="str">
-        <f>Sheet1!B59</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C59">
-        <f>IF(Sheet1!C59&lt;4,Sheet1!C59,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D59">
-        <f>IF(Sheet1!D59&lt;3,Sheet1!D59,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E59">
-        <f>IF(Sheet1!E59&lt;2,Sheet1!E59,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="str">
-        <f>Sheet1!A60</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B60" t="str">
-        <f>Sheet1!B60</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C60">
-        <f>IF(Sheet1!C60&lt;4,Sheet1!C60,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D60">
-        <f>IF(Sheet1!D60&lt;3,Sheet1!D60,"")</f>
-        <v>1.3719779000000001</v>
-      </c>
-      <c r="E60">
-        <f>IF(Sheet1!E60&lt;2,Sheet1!E60,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="str">
-        <f>Sheet1!A61</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B61" t="str">
-        <f>Sheet1!B61</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C61">
-        <f>IF(Sheet1!C61&lt;4,Sheet1!C61,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D61">
-        <f>IF(Sheet1!D61&lt;3,Sheet1!D61,"")</f>
-        <v>1.3719779000000001</v>
-      </c>
-      <c r="E61">
-        <f>IF(Sheet1!E61&lt;2,Sheet1!E61,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="str">
-        <f>Sheet1!A62</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B62" t="str">
-        <f>Sheet1!B62</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C62">
-        <f>IF(Sheet1!C62&lt;4,Sheet1!C62,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D62">
-        <f>IF(Sheet1!D62&lt;3,Sheet1!D62,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E62">
-        <f>IF(Sheet1!E62&lt;2,Sheet1!E62,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="str">
-        <f>Sheet1!A63</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B63" t="str">
-        <f>Sheet1!B63</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C63">
-        <f>IF(Sheet1!C63&lt;4,Sheet1!C63,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D63">
-        <f>IF(Sheet1!D63&lt;3,Sheet1!D63,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E63">
-        <f>IF(Sheet1!E63&lt;2,Sheet1!E63,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="str">
-        <f>Sheet1!A64</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B64" t="str">
-        <f>Sheet1!B64</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C64">
-        <f>IF(Sheet1!C64&lt;4,Sheet1!C64,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D64">
-        <f>IF(Sheet1!D64&lt;3,Sheet1!D64,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E64">
-        <f>IF(Sheet1!E64&lt;2,Sheet1!E64,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="str">
-        <f>Sheet1!A65</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B65" t="str">
-        <f>Sheet1!B65</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C65">
-        <f>IF(Sheet1!C65&lt;4,Sheet1!C65,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D65">
-        <f>IF(Sheet1!D65&lt;3,Sheet1!D65,"")</f>
-        <v>1.4291438000000001</v>
-      </c>
-      <c r="E65">
-        <f>IF(Sheet1!E65&lt;2,Sheet1!E65,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="str">
-        <f>Sheet1!A66</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B66" t="str">
-        <f>Sheet1!B66</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C66">
-        <f>IF(Sheet1!C66&lt;4,Sheet1!C66,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D66">
-        <f>IF(Sheet1!D66&lt;3,Sheet1!D66,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E66">
-        <f>IF(Sheet1!E66&lt;2,Sheet1!E66,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="str">
-        <f>Sheet1!A67</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B67" t="str">
-        <f>Sheet1!B67</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C67">
-        <f>IF(Sheet1!C67&lt;4,Sheet1!C67,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D67">
-        <f>IF(Sheet1!D67&lt;3,Sheet1!D67,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E67">
-        <f>IF(Sheet1!E67&lt;2,Sheet1!E67,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="str">
-        <f>Sheet1!A68</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B68" t="str">
-        <f>Sheet1!B68</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C68">
-        <f>IF(Sheet1!C68&lt;4,Sheet1!C68,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D68">
-        <f>IF(Sheet1!D68&lt;3,Sheet1!D68,"")</f>
-        <v>1.4291438000000001</v>
-      </c>
-      <c r="E68">
-        <f>IF(Sheet1!E68&lt;2,Sheet1!E68,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="str">
-        <f>Sheet1!A69</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B69" t="str">
-        <f>Sheet1!B69</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C69">
-        <f>IF(Sheet1!C69&lt;4,Sheet1!C69,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D69">
-        <f>IF(Sheet1!D69&lt;3,Sheet1!D69,"")</f>
-        <v>1.4291438000000001</v>
-      </c>
-      <c r="E69">
-        <f>IF(Sheet1!E69&lt;2,Sheet1!E69,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="str">
-        <f>Sheet1!A70</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B70" t="str">
-        <f>Sheet1!B70</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C70">
-        <f>IF(Sheet1!C70&lt;4,Sheet1!C70,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D70">
-        <f>IF(Sheet1!D70&lt;3,Sheet1!D70,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E70">
-        <f>IF(Sheet1!E70&lt;2,Sheet1!E70,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="str">
-        <f>Sheet1!A71</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B71" t="str">
-        <f>Sheet1!B71</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C71">
-        <f>IF(Sheet1!C71&lt;4,Sheet1!C71,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D71">
-        <f>IF(Sheet1!D71&lt;3,Sheet1!D71,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E71">
-        <f>IF(Sheet1!E71&lt;2,Sheet1!E71,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="str">
-        <f>Sheet1!A72</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B72" t="str">
-        <f>Sheet1!B72</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C72">
-        <f>IF(Sheet1!C72&lt;4,Sheet1!C72,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D72">
-        <f>IF(Sheet1!D72&lt;3,Sheet1!D72,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E72">
-        <f>IF(Sheet1!E72&lt;2,Sheet1!E72,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="str">
-        <f>Sheet1!A73</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B73" t="str">
-        <f>Sheet1!B73</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C73">
-        <f>IF(Sheet1!C73&lt;4,Sheet1!C73,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D73">
-        <f>IF(Sheet1!D73&lt;3,Sheet1!D73,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E73">
-        <f>IF(Sheet1!E73&lt;2,Sheet1!E73,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="str">
-        <f>Sheet1!A74</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B74" t="str">
-        <f>Sheet1!B74</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C74">
-        <f>IF(Sheet1!C74&lt;4,Sheet1!C74,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D74">
-        <f>IF(Sheet1!D74&lt;3,Sheet1!D74,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E74">
-        <f>IF(Sheet1!E74&lt;2,Sheet1!E74,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="str">
-        <f>Sheet1!A75</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B75" t="str">
-        <f>Sheet1!B75</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C75">
-        <f>IF(Sheet1!C75&lt;4,Sheet1!C75,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D75">
-        <f>IF(Sheet1!D75&lt;3,Sheet1!D75,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E75">
-        <f>IF(Sheet1!E75&lt;2,Sheet1!E75,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="str">
-        <f>Sheet1!A76</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B76" t="str">
-        <f>Sheet1!B76</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C76">
-        <f>IF(Sheet1!C76&lt;4,Sheet1!C76,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D76">
-        <f>IF(Sheet1!D76&lt;3,Sheet1!D76,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E76">
-        <f>IF(Sheet1!E76&lt;2,Sheet1!E76,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="str">
-        <f>Sheet1!A77</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B77" t="str">
-        <f>Sheet1!B77</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C77">
-        <f>IF(Sheet1!C77&lt;4,Sheet1!C77,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D77">
-        <f>IF(Sheet1!D77&lt;3,Sheet1!D77,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E77">
-        <f>IF(Sheet1!E77&lt;2,Sheet1!E77,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="str">
-        <f>Sheet1!A78</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B78" t="str">
-        <f>Sheet1!B78</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C78">
-        <f>IF(Sheet1!C78&lt;4,Sheet1!C78,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D78">
-        <f>IF(Sheet1!D78&lt;3,Sheet1!D78,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E78">
-        <f>IF(Sheet1!E78&lt;2,Sheet1!E78,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="str">
-        <f>Sheet1!A79</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B79" t="str">
-        <f>Sheet1!B79</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C79">
-        <f>IF(Sheet1!C79&lt;4,Sheet1!C79,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D79">
-        <f>IF(Sheet1!D79&lt;3,Sheet1!D79,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E79">
-        <f>IF(Sheet1!E79&lt;2,Sheet1!E79,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="str">
-        <f>Sheet1!A80</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B80" t="str">
-        <f>Sheet1!B80</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C80">
-        <f>IF(Sheet1!C80&lt;4,Sheet1!C80,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D80">
-        <f>IF(Sheet1!D80&lt;3,Sheet1!D80,"")</f>
-        <v>1.4291438000000001</v>
-      </c>
-      <c r="E80">
-        <f>IF(Sheet1!E80&lt;2,Sheet1!E80,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="str">
-        <f>Sheet1!A81</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B81" t="str">
-        <f>Sheet1!B81</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C81">
-        <f>IF(Sheet1!C81&lt;4,Sheet1!C81,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D81">
-        <f>IF(Sheet1!D81&lt;3,Sheet1!D81,"")</f>
-        <v>1.4291438000000001</v>
-      </c>
-      <c r="E81">
-        <f>IF(Sheet1!E81&lt;2,Sheet1!E81,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="str">
-        <f>Sheet1!A82</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B82" t="str">
-        <f>Sheet1!B82</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C82">
-        <f>IF(Sheet1!C82&lt;4,Sheet1!C82,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D82">
-        <f>IF(Sheet1!D82&lt;3,Sheet1!D82,"")</f>
-        <v>1.4291438000000001</v>
-      </c>
-      <c r="E82">
-        <f>IF(Sheet1!E82&lt;2,Sheet1!E82,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="str">
-        <f>Sheet1!A83</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B83" t="str">
-        <f>Sheet1!B83</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C83">
-        <f>IF(Sheet1!C83&lt;4,Sheet1!C83,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D83">
-        <f>IF(Sheet1!D83&lt;3,Sheet1!D83,"")</f>
-        <v>1.4291438000000001</v>
-      </c>
-      <c r="E83" t="str">
-        <f>IF(Sheet1!E83&lt;2,Sheet1!E83,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="str">
-        <f>Sheet1!A84</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B84" t="str">
-        <f>Sheet1!B84</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C84">
-        <f>IF(Sheet1!C84&lt;4,Sheet1!C84,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D84">
-        <f>IF(Sheet1!D84&lt;3,Sheet1!D84,"")</f>
-        <v>1.4005609000000001</v>
-      </c>
-      <c r="E84" t="str">
-        <f>IF(Sheet1!E84&lt;2,Sheet1!E84,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="str">
-        <f>Sheet1!A85</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B85" t="str">
-        <f>Sheet1!B85</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C85">
-        <f>IF(Sheet1!C85&lt;4,Sheet1!C85,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D85">
-        <f>IF(Sheet1!D85&lt;3,Sheet1!D85,"")</f>
-        <v>1.4005609000000001</v>
-      </c>
-      <c r="E85">
-        <f>IF(Sheet1!E85&lt;2,Sheet1!E85,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="str">
-        <f>Sheet1!A86</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B86" t="str">
-        <f>Sheet1!B86</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C86">
-        <f>IF(Sheet1!C86&lt;4,Sheet1!C86,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D86">
-        <f>IF(Sheet1!D86&lt;3,Sheet1!D86,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E86">
-        <f>IF(Sheet1!E86&lt;2,Sheet1!E86,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="str">
-        <f>Sheet1!A87</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B87" t="str">
-        <f>Sheet1!B87</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C87">
-        <f>IF(Sheet1!C87&lt;4,Sheet1!C87,"")</f>
-        <v>1.8864696999999999</v>
-      </c>
-      <c r="D87">
-        <f>IF(Sheet1!D87&lt;3,Sheet1!D87,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E87">
-        <f>IF(Sheet1!E87&lt;2,Sheet1!E87,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="str">
-        <f>Sheet1!A88</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B88" t="str">
-        <f>Sheet1!B88</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C88">
-        <f>IF(Sheet1!C88&lt;4,Sheet1!C88,"")</f>
-        <v>1.8578870000000001</v>
-      </c>
-      <c r="D88">
-        <f>IF(Sheet1!D88&lt;3,Sheet1!D88,"")</f>
-        <v>1.4291438000000001</v>
-      </c>
-      <c r="E88">
-        <f>IF(Sheet1!E88&lt;2,Sheet1!E88,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="str">
-        <f>Sheet1!A89</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B89" t="str">
-        <f>Sheet1!B89</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C89">
-        <f>IF(Sheet1!C89&lt;4,Sheet1!C89,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D89">
-        <f>IF(Sheet1!D89&lt;3,Sheet1!D89,"")</f>
-        <v>1.4291438000000001</v>
-      </c>
-      <c r="E89">
-        <f>IF(Sheet1!E89&lt;2,Sheet1!E89,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="str">
-        <f>Sheet1!A90</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B90" t="str">
-        <f>Sheet1!B90</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C90">
-        <f>IF(Sheet1!C90&lt;4,Sheet1!C90,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D90">
-        <f>IF(Sheet1!D90&lt;3,Sheet1!D90,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E90">
-        <f>IF(Sheet1!E90&lt;2,Sheet1!E90,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="str">
-        <f>Sheet1!A91</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B91" t="str">
-        <f>Sheet1!B91</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C91">
-        <f>IF(Sheet1!C91&lt;4,Sheet1!C91,"")</f>
-        <v>1.8864696999999999</v>
-      </c>
-      <c r="D91">
-        <f>IF(Sheet1!D91&lt;3,Sheet1!D91,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E91">
-        <f>IF(Sheet1!E91&lt;2,Sheet1!E91,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="str">
-        <f>Sheet1!A92</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B92" t="str">
-        <f>Sheet1!B92</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C92">
-        <f>IF(Sheet1!C92&lt;4,Sheet1!C92,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D92">
-        <f>IF(Sheet1!D92&lt;3,Sheet1!D92,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E92">
-        <f>IF(Sheet1!E92&lt;2,Sheet1!E92,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="str">
-        <f>Sheet1!A93</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B93" t="str">
-        <f>Sheet1!B93</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C93">
-        <f>IF(Sheet1!C93&lt;4,Sheet1!C93,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D93">
-        <f>IF(Sheet1!D93&lt;3,Sheet1!D93,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E93">
-        <f>IF(Sheet1!E93&lt;2,Sheet1!E93,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="str">
-        <f>Sheet1!A94</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B94" t="str">
-        <f>Sheet1!B94</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C94">
-        <f>IF(Sheet1!C94&lt;4,Sheet1!C94,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D94">
-        <f>IF(Sheet1!D94&lt;3,Sheet1!D94,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E94">
-        <f>IF(Sheet1!E94&lt;2,Sheet1!E94,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="str">
-        <f>Sheet1!A95</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B95" t="str">
-        <f>Sheet1!B95</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C95">
-        <f>IF(Sheet1!C95&lt;4,Sheet1!C95,"")</f>
-        <v>1.8864696999999999</v>
-      </c>
-      <c r="D95">
-        <f>IF(Sheet1!D95&lt;3,Sheet1!D95,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E95">
-        <f>IF(Sheet1!E95&lt;2,Sheet1!E95,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="str">
-        <f>Sheet1!A96</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B96" t="str">
-        <f>Sheet1!B96</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C96">
-        <f>IF(Sheet1!C96&lt;4,Sheet1!C96,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D96">
-        <f>IF(Sheet1!D96&lt;3,Sheet1!D96,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E96">
-        <f>IF(Sheet1!E96&lt;2,Sheet1!E96,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="str">
-        <f>Sheet1!A97</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B97" t="str">
-        <f>Sheet1!B97</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C97">
-        <f>IF(Sheet1!C97&lt;4,Sheet1!C97,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D97">
-        <f>IF(Sheet1!D97&lt;3,Sheet1!D97,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E97">
-        <f>IF(Sheet1!E97&lt;2,Sheet1!E97,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="str">
-        <f>Sheet1!A98</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B98" t="str">
-        <f>Sheet1!B98</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C98">
-        <f>IF(Sheet1!C98&lt;4,Sheet1!C98,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D98">
-        <f>IF(Sheet1!D98&lt;3,Sheet1!D98,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E98">
-        <f>IF(Sheet1!E98&lt;2,Sheet1!E98,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="str">
-        <f>Sheet1!A99</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B99" t="str">
-        <f>Sheet1!B99</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C99" t="str">
-        <f>IF(Sheet1!C99&lt;4,Sheet1!C99,"")</f>
-        <v/>
-      </c>
-      <c r="D99">
-        <f>IF(Sheet1!D99&lt;3,Sheet1!D99,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E99">
-        <f>IF(Sheet1!E99&lt;2,Sheet1!E99,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="str">
-        <f>Sheet1!A100</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B100" t="str">
-        <f>Sheet1!B100</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C100">
-        <f>IF(Sheet1!C100&lt;4,Sheet1!C100,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D100">
-        <f>IF(Sheet1!D100&lt;3,Sheet1!D100,"")</f>
-        <v>1.4291438000000001</v>
-      </c>
-      <c r="E100">
-        <f>IF(Sheet1!E100&lt;2,Sheet1!E100,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="str">
-        <f>Sheet1!A101</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B101" t="str">
-        <f>Sheet1!B101</f>
-        <v>Speaker to Speaker</v>
-      </c>
-      <c r="C101">
-        <f>IF(Sheet1!C101&lt;4,Sheet1!C101,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D101">
-        <f>IF(Sheet1!D101&lt;3,Sheet1!D101,"")</f>
-        <v>1.4005609000000001</v>
-      </c>
-      <c r="E101">
-        <f>IF(Sheet1!E101&lt;2,Sheet1!E101,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" t="str">
-        <f>Sheet1!A102</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B102" t="str">
-        <f>Sheet1!B102</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C102">
-        <f>IF(Sheet1!C102&lt;4,Sheet1!C102,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D102">
-        <f>IF(Sheet1!D102&lt;3,Sheet1!D102,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E102">
-        <f>IF(Sheet1!E102&lt;2,Sheet1!E102,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="str">
-        <f>Sheet1!A103</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B103" t="str">
-        <f>Sheet1!B103</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C103">
-        <f>IF(Sheet1!C103&lt;4,Sheet1!C103,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D103">
-        <f>IF(Sheet1!D103&lt;3,Sheet1!D103,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E103">
-        <f>IF(Sheet1!E103&lt;2,Sheet1!E103,"")</f>
-        <v>1.1718979</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="str">
-        <f>Sheet1!A104</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B104" t="str">
-        <f>Sheet1!B104</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C104">
-        <f>IF(Sheet1!C104&lt;4,Sheet1!C104,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D104">
-        <f>IF(Sheet1!D104&lt;3,Sheet1!D104,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E104">
-        <f>IF(Sheet1!E104&lt;2,Sheet1!E104,"")</f>
-        <v>1.1718979</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="str">
-        <f>Sheet1!A105</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B105" t="str">
-        <f>Sheet1!B105</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C105">
-        <f>IF(Sheet1!C105&lt;4,Sheet1!C105,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D105">
-        <f>IF(Sheet1!D105&lt;3,Sheet1!D105,"")</f>
-        <v>1.7149725</v>
-      </c>
-      <c r="E105">
-        <f>IF(Sheet1!E105&lt;2,Sheet1!E105,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="str">
-        <f>Sheet1!A106</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B106" t="str">
-        <f>Sheet1!B106</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C106">
-        <f>IF(Sheet1!C106&lt;4,Sheet1!C106,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="D106">
-        <f>IF(Sheet1!D106&lt;3,Sheet1!D106,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E106">
-        <f>IF(Sheet1!E106&lt;2,Sheet1!E106,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="str">
-        <f>Sheet1!A107</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B107" t="str">
-        <f>Sheet1!B107</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C107">
-        <f>IF(Sheet1!C107&lt;4,Sheet1!C107,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D107">
-        <f>IF(Sheet1!D107&lt;3,Sheet1!D107,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E107">
-        <f>IF(Sheet1!E107&lt;2,Sheet1!E107,"")</f>
-        <v>1.1718979</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="str">
-        <f>Sheet1!A108</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B108" t="str">
-        <f>Sheet1!B108</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C108">
-        <f>IF(Sheet1!C108&lt;4,Sheet1!C108,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D108">
-        <f>IF(Sheet1!D108&lt;3,Sheet1!D108,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E108">
-        <f>IF(Sheet1!E108&lt;2,Sheet1!E108,"")</f>
-        <v>1.1718979</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="str">
-        <f>Sheet1!A109</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B109" t="str">
-        <f>Sheet1!B109</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C109">
-        <f>IF(Sheet1!C109&lt;4,Sheet1!C109,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D109">
-        <f>IF(Sheet1!D109&lt;3,Sheet1!D109,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E109">
-        <f>IF(Sheet1!E109&lt;2,Sheet1!E109,"")</f>
-        <v>1.1718979</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="str">
-        <f>Sheet1!A110</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B110" t="str">
-        <f>Sheet1!B110</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C110">
-        <f>IF(Sheet1!C110&lt;4,Sheet1!C110,"")</f>
-        <v>2.1437156000000002</v>
-      </c>
-      <c r="D110">
-        <f>IF(Sheet1!D110&lt;3,Sheet1!D110,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E110">
-        <f>IF(Sheet1!E110&lt;2,Sheet1!E110,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="str">
-        <f>Sheet1!A111</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B111" t="str">
-        <f>Sheet1!B111</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C111">
-        <f>IF(Sheet1!C111&lt;4,Sheet1!C111,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D111">
-        <f>IF(Sheet1!D111&lt;3,Sheet1!D111,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E111">
-        <f>IF(Sheet1!E111&lt;2,Sheet1!E111,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="str">
-        <f>Sheet1!A112</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B112" t="str">
-        <f>Sheet1!B112</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C112">
-        <f>IF(Sheet1!C112&lt;4,Sheet1!C112,"")</f>
-        <v>2.1151328</v>
-      </c>
-      <c r="D112">
-        <f>IF(Sheet1!D112&lt;3,Sheet1!D112,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E112">
-        <f>IF(Sheet1!E112&lt;2,Sheet1!E112,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="str">
-        <f>Sheet1!A113</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B113" t="str">
-        <f>Sheet1!B113</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C113">
-        <f>IF(Sheet1!C113&lt;4,Sheet1!C113,"")</f>
-        <v>2.1437156000000002</v>
-      </c>
-      <c r="D113">
-        <f>IF(Sheet1!D113&lt;3,Sheet1!D113,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E113">
-        <f>IF(Sheet1!E113&lt;2,Sheet1!E113,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="str">
-        <f>Sheet1!A114</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B114" t="str">
-        <f>Sheet1!B114</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C114">
-        <f>IF(Sheet1!C114&lt;4,Sheet1!C114,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="D114">
-        <f>IF(Sheet1!D114&lt;3,Sheet1!D114,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E114">
-        <f>IF(Sheet1!E114&lt;2,Sheet1!E114,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" t="str">
-        <f>Sheet1!A115</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B115" t="str">
-        <f>Sheet1!B115</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C115">
-        <f>IF(Sheet1!C115&lt;4,Sheet1!C115,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D115">
-        <f>IF(Sheet1!D115&lt;3,Sheet1!D115,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E115">
-        <f>IF(Sheet1!E115&lt;2,Sheet1!E115,"")</f>
-        <v>1.1718979</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="str">
-        <f>Sheet1!A116</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B116" t="str">
-        <f>Sheet1!B116</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C116">
-        <f>IF(Sheet1!C116&lt;4,Sheet1!C116,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D116">
-        <f>IF(Sheet1!D116&lt;3,Sheet1!D116,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E116">
-        <f>IF(Sheet1!E116&lt;2,Sheet1!E116,"")</f>
-        <v>1.1718979</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="str">
-        <f>Sheet1!A117</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B117" t="str">
-        <f>Sheet1!B117</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C117">
-        <f>IF(Sheet1!C117&lt;4,Sheet1!C117,"")</f>
-        <v>2.315213</v>
-      </c>
-      <c r="D117">
-        <f>IF(Sheet1!D117&lt;3,Sheet1!D117,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E117">
-        <f>IF(Sheet1!E117&lt;2,Sheet1!E117,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="str">
-        <f>Sheet1!A118</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B118" t="str">
-        <f>Sheet1!B118</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C118">
-        <f>IF(Sheet1!C118&lt;4,Sheet1!C118,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D118">
-        <f>IF(Sheet1!D118&lt;3,Sheet1!D118,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E118">
-        <f>IF(Sheet1!E118&lt;2,Sheet1!E118,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="str">
-        <f>Sheet1!A119</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B119" t="str">
-        <f>Sheet1!B119</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C119">
-        <f>IF(Sheet1!C119&lt;4,Sheet1!C119,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D119">
-        <f>IF(Sheet1!D119&lt;3,Sheet1!D119,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E119">
-        <f>IF(Sheet1!E119&lt;2,Sheet1!E119,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="str">
-        <f>Sheet1!A120</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B120" t="str">
-        <f>Sheet1!B120</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C120">
-        <f>IF(Sheet1!C120&lt;4,Sheet1!C120,"")</f>
-        <v>2.315213</v>
-      </c>
-      <c r="D120">
-        <f>IF(Sheet1!D120&lt;3,Sheet1!D120,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E120">
-        <f>IF(Sheet1!E120&lt;2,Sheet1!E120,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="str">
-        <f>Sheet1!A121</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B121" t="str">
-        <f>Sheet1!B121</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C121">
-        <f>IF(Sheet1!C121&lt;4,Sheet1!C121,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D121">
-        <f>IF(Sheet1!D121&lt;3,Sheet1!D121,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E121">
-        <f>IF(Sheet1!E121&lt;2,Sheet1!E121,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="str">
-        <f>Sheet1!A122</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B122" t="str">
-        <f>Sheet1!B122</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C122">
-        <f>IF(Sheet1!C122&lt;4,Sheet1!C122,"")</f>
-        <v>2.1437156000000002</v>
-      </c>
-      <c r="D122">
-        <f>IF(Sheet1!D122&lt;3,Sheet1!D122,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E122">
-        <f>IF(Sheet1!E122&lt;2,Sheet1!E122,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="str">
-        <f>Sheet1!A123</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B123" t="str">
-        <f>Sheet1!B123</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C123">
-        <f>IF(Sheet1!C123&lt;4,Sheet1!C123,"")</f>
-        <v>2.1151328</v>
-      </c>
-      <c r="D123">
-        <f>IF(Sheet1!D123&lt;3,Sheet1!D123,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E123">
-        <f>IF(Sheet1!E123&lt;2,Sheet1!E123,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" t="str">
-        <f>Sheet1!A124</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B124" t="str">
-        <f>Sheet1!B124</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C124">
-        <f>IF(Sheet1!C124&lt;4,Sheet1!C124,"")</f>
-        <v>2.1151328</v>
-      </c>
-      <c r="D124">
-        <f>IF(Sheet1!D124&lt;3,Sheet1!D124,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E124">
-        <f>IF(Sheet1!E124&lt;2,Sheet1!E124,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="str">
-        <f>Sheet1!A125</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B125" t="str">
-        <f>Sheet1!B125</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C125">
-        <f>IF(Sheet1!C125&lt;4,Sheet1!C125,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D125">
-        <f>IF(Sheet1!D125&lt;3,Sheet1!D125,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E125">
-        <f>IF(Sheet1!E125&lt;2,Sheet1!E125,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="str">
-        <f>Sheet1!A126</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B126" t="str">
-        <f>Sheet1!B126</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C126">
-        <f>IF(Sheet1!C126&lt;4,Sheet1!C126,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D126">
-        <f>IF(Sheet1!D126&lt;3,Sheet1!D126,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E126">
-        <f>IF(Sheet1!E126&lt;2,Sheet1!E126,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="str">
-        <f>Sheet1!A127</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B127" t="str">
-        <f>Sheet1!B127</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C127">
-        <f>IF(Sheet1!C127&lt;4,Sheet1!C127,"")</f>
-        <v>2.315213</v>
-      </c>
-      <c r="D127">
-        <f>IF(Sheet1!D127&lt;3,Sheet1!D127,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E127">
-        <f>IF(Sheet1!E127&lt;2,Sheet1!E127,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" t="str">
-        <f>Sheet1!A128</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B128" t="str">
-        <f>Sheet1!B128</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C128">
-        <f>IF(Sheet1!C128&lt;4,Sheet1!C128,"")</f>
-        <v>2.315213</v>
-      </c>
-      <c r="D128">
-        <f>IF(Sheet1!D128&lt;3,Sheet1!D128,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E128">
-        <f>IF(Sheet1!E128&lt;2,Sheet1!E128,"")</f>
-        <v>1.1718979</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" t="str">
-        <f>Sheet1!A129</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B129" t="str">
-        <f>Sheet1!B129</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C129">
-        <f>IF(Sheet1!C129&lt;4,Sheet1!C129,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D129">
-        <f>IF(Sheet1!D129&lt;3,Sheet1!D129,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E129">
-        <f>IF(Sheet1!E129&lt;2,Sheet1!E129,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" t="str">
-        <f>Sheet1!A130</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B130" t="str">
-        <f>Sheet1!B130</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C130">
-        <f>IF(Sheet1!C130&lt;4,Sheet1!C130,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D130">
-        <f>IF(Sheet1!D130&lt;3,Sheet1!D130,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E130">
-        <f>IF(Sheet1!E130&lt;2,Sheet1!E130,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" t="str">
-        <f>Sheet1!A131</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B131" t="str">
-        <f>Sheet1!B131</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C131">
-        <f>IF(Sheet1!C131&lt;4,Sheet1!C131,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D131">
-        <f>IF(Sheet1!D131&lt;3,Sheet1!D131,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E131">
-        <f>IF(Sheet1!E131&lt;2,Sheet1!E131,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" t="str">
-        <f>Sheet1!A132</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B132" t="str">
-        <f>Sheet1!B132</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C132">
-        <f>IF(Sheet1!C132&lt;4,Sheet1!C132,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D132">
-        <f>IF(Sheet1!D132&lt;3,Sheet1!D132,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E132">
-        <f>IF(Sheet1!E132&lt;2,Sheet1!E132,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" t="str">
-        <f>Sheet1!A133</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B133" t="str">
-        <f>Sheet1!B133</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C133">
-        <f>IF(Sheet1!C133&lt;4,Sheet1!C133,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D133">
-        <f>IF(Sheet1!D133&lt;3,Sheet1!D133,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E133">
-        <f>IF(Sheet1!E133&lt;2,Sheet1!E133,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" t="str">
-        <f>Sheet1!A134</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B134" t="str">
-        <f>Sheet1!B134</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C134">
-        <f>IF(Sheet1!C134&lt;4,Sheet1!C134,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D134">
-        <f>IF(Sheet1!D134&lt;3,Sheet1!D134,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E134">
-        <f>IF(Sheet1!E134&lt;2,Sheet1!E134,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" t="str">
-        <f>Sheet1!A135</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B135" t="str">
-        <f>Sheet1!B135</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C135">
-        <f>IF(Sheet1!C135&lt;4,Sheet1!C135,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D135">
-        <f>IF(Sheet1!D135&lt;3,Sheet1!D135,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E135">
-        <f>IF(Sheet1!E135&lt;2,Sheet1!E135,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="str">
-        <f>Sheet1!A136</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B136" t="str">
-        <f>Sheet1!B136</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C136">
-        <f>IF(Sheet1!C136&lt;4,Sheet1!C136,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D136">
-        <f>IF(Sheet1!D136&lt;3,Sheet1!D136,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E136">
-        <f>IF(Sheet1!E136&lt;2,Sheet1!E136,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="str">
-        <f>Sheet1!A137</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B137" t="str">
-        <f>Sheet1!B137</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C137">
-        <f>IF(Sheet1!C137&lt;4,Sheet1!C137,"")</f>
-        <v>2.1437156000000002</v>
-      </c>
-      <c r="D137">
-        <f>IF(Sheet1!D137&lt;3,Sheet1!D137,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E137">
-        <f>IF(Sheet1!E137&lt;2,Sheet1!E137,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" t="str">
-        <f>Sheet1!A138</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B138" t="str">
-        <f>Sheet1!B138</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C138">
-        <f>IF(Sheet1!C138&lt;4,Sheet1!C138,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D138">
-        <f>IF(Sheet1!D138&lt;3,Sheet1!D138,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E138">
-        <f>IF(Sheet1!E138&lt;2,Sheet1!E138,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" t="str">
-        <f>Sheet1!A139</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B139" t="str">
-        <f>Sheet1!B139</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C139">
-        <f>IF(Sheet1!C139&lt;4,Sheet1!C139,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D139">
-        <f>IF(Sheet1!D139&lt;3,Sheet1!D139,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E139">
-        <f>IF(Sheet1!E139&lt;2,Sheet1!E139,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" t="str">
-        <f>Sheet1!A140</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B140" t="str">
-        <f>Sheet1!B140</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C140">
-        <f>IF(Sheet1!C140&lt;4,Sheet1!C140,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D140">
-        <f>IF(Sheet1!D140&lt;3,Sheet1!D140,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E140">
-        <f>IF(Sheet1!E140&lt;2,Sheet1!E140,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="str">
-        <f>Sheet1!A141</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B141" t="str">
-        <f>Sheet1!B141</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C141">
-        <f>IF(Sheet1!C141&lt;4,Sheet1!C141,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D141">
-        <f>IF(Sheet1!D141&lt;3,Sheet1!D141,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E141">
-        <f>IF(Sheet1!E141&lt;2,Sheet1!E141,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" t="str">
-        <f>Sheet1!A142</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B142" t="str">
-        <f>Sheet1!B142</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C142">
-        <f>IF(Sheet1!C142&lt;4,Sheet1!C142,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D142">
-        <f>IF(Sheet1!D142&lt;3,Sheet1!D142,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E142">
-        <f>IF(Sheet1!E142&lt;2,Sheet1!E142,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" t="str">
-        <f>Sheet1!A143</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B143" t="str">
-        <f>Sheet1!B143</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C143" t="str">
-        <f>IF(Sheet1!C143&lt;4,Sheet1!C143,"")</f>
-        <v/>
-      </c>
-      <c r="D143">
-        <f>IF(Sheet1!D143&lt;3,Sheet1!D143,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E143">
-        <f>IF(Sheet1!E143&lt;2,Sheet1!E143,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="str">
-        <f>Sheet1!A144</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B144" t="str">
-        <f>Sheet1!B144</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C144" t="str">
-        <f>IF(Sheet1!C144&lt;4,Sheet1!C144,"")</f>
-        <v/>
-      </c>
-      <c r="D144">
-        <f>IF(Sheet1!D144&lt;3,Sheet1!D144,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E144">
-        <f>IF(Sheet1!E144&lt;2,Sheet1!E144,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" t="str">
-        <f>Sheet1!A145</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B145" t="str">
-        <f>Sheet1!B145</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C145">
-        <f>IF(Sheet1!C145&lt;4,Sheet1!C145,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D145">
-        <f>IF(Sheet1!D145&lt;3,Sheet1!D145,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E145">
-        <f>IF(Sheet1!E145&lt;2,Sheet1!E145,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" t="str">
-        <f>Sheet1!A146</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B146" t="str">
-        <f>Sheet1!B146</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C146">
-        <f>IF(Sheet1!C146&lt;4,Sheet1!C146,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D146">
-        <f>IF(Sheet1!D146&lt;3,Sheet1!D146,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E146">
-        <f>IF(Sheet1!E146&lt;2,Sheet1!E146,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" t="str">
-        <f>Sheet1!A147</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B147" t="str">
-        <f>Sheet1!B147</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C147">
-        <f>IF(Sheet1!C147&lt;4,Sheet1!C147,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D147">
-        <f>IF(Sheet1!D147&lt;3,Sheet1!D147,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E147">
-        <f>IF(Sheet1!E147&lt;2,Sheet1!E147,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" t="str">
-        <f>Sheet1!A148</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B148" t="str">
-        <f>Sheet1!B148</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C148">
-        <f>IF(Sheet1!C148&lt;4,Sheet1!C148,"")</f>
-        <v>2.315213</v>
-      </c>
-      <c r="D148">
-        <f>IF(Sheet1!D148&lt;3,Sheet1!D148,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E148">
-        <f>IF(Sheet1!E148&lt;2,Sheet1!E148,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="str">
-        <f>Sheet1!A149</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B149" t="str">
-        <f>Sheet1!B149</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C149">
-        <f>IF(Sheet1!C149&lt;4,Sheet1!C149,"")</f>
-        <v>2.3437958000000001</v>
-      </c>
-      <c r="D149">
-        <f>IF(Sheet1!D149&lt;3,Sheet1!D149,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E149" t="str">
-        <f>IF(Sheet1!E149&lt;2,Sheet1!E149,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" t="str">
-        <f>Sheet1!A150</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B150" t="str">
-        <f>Sheet1!B150</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C150">
-        <f>IF(Sheet1!C150&lt;4,Sheet1!C150,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D150">
-        <f>IF(Sheet1!D150&lt;3,Sheet1!D150,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E150" t="str">
-        <f>IF(Sheet1!E150&lt;2,Sheet1!E150,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" t="str">
-        <f>Sheet1!A151</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B151" t="str">
-        <f>Sheet1!B151</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C151">
-        <f>IF(Sheet1!C151&lt;4,Sheet1!C151,"")</f>
-        <v>2.315213</v>
-      </c>
-      <c r="D151">
-        <f>IF(Sheet1!D151&lt;3,Sheet1!D151,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E151">
-        <f>IF(Sheet1!E151&lt;2,Sheet1!E151,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" t="str">
-        <f>Sheet1!A152</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B152" t="str">
-        <f>Sheet1!B152</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C152">
-        <f>IF(Sheet1!C152&lt;4,Sheet1!C152,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D152">
-        <f>IF(Sheet1!D152&lt;3,Sheet1!D152,"")</f>
-        <v>1.7435554</v>
-      </c>
-      <c r="E152">
-        <f>IF(Sheet1!E152&lt;2,Sheet1!E152,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="str">
-        <f>Sheet1!A153</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B153" t="str">
-        <f>Sheet1!B153</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C153">
-        <f>IF(Sheet1!C153&lt;4,Sheet1!C153,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D153">
-        <f>IF(Sheet1!D153&lt;3,Sheet1!D153,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E153">
-        <f>IF(Sheet1!E153&lt;2,Sheet1!E153,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" t="str">
-        <f>Sheet1!A154</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B154" t="str">
-        <f>Sheet1!B154</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C154">
-        <f>IF(Sheet1!C154&lt;4,Sheet1!C154,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D154">
-        <f>IF(Sheet1!D154&lt;3,Sheet1!D154,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E154">
-        <f>IF(Sheet1!E154&lt;2,Sheet1!E154,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" t="str">
-        <f>Sheet1!A155</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B155" t="str">
-        <f>Sheet1!B155</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C155">
-        <f>IF(Sheet1!C155&lt;4,Sheet1!C155,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D155">
-        <f>IF(Sheet1!D155&lt;3,Sheet1!D155,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E155">
-        <f>IF(Sheet1!E155&lt;2,Sheet1!E155,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="str">
-        <f>Sheet1!A156</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B156" t="str">
-        <f>Sheet1!B156</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C156">
-        <f>IF(Sheet1!C156&lt;4,Sheet1!C156,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D156">
-        <f>IF(Sheet1!D156&lt;3,Sheet1!D156,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E156">
-        <f>IF(Sheet1!E156&lt;2,Sheet1!E156,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" t="str">
-        <f>Sheet1!A157</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B157" t="str">
-        <f>Sheet1!B157</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C157">
-        <f>IF(Sheet1!C157&lt;4,Sheet1!C157,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D157">
-        <f>IF(Sheet1!D157&lt;3,Sheet1!D157,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E157">
-        <f>IF(Sheet1!E157&lt;2,Sheet1!E157,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" t="str">
-        <f>Sheet1!A158</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B158" t="str">
-        <f>Sheet1!B158</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C158">
-        <f>IF(Sheet1!C158&lt;4,Sheet1!C158,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D158">
-        <f>IF(Sheet1!D158&lt;3,Sheet1!D158,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E158">
-        <f>IF(Sheet1!E158&lt;2,Sheet1!E158,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="str">
-        <f>Sheet1!A159</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B159" t="str">
-        <f>Sheet1!B159</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C159">
-        <f>IF(Sheet1!C159&lt;4,Sheet1!C159,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D159">
-        <f>IF(Sheet1!D159&lt;3,Sheet1!D159,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E159">
-        <f>IF(Sheet1!E159&lt;2,Sheet1!E159,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" t="str">
-        <f>Sheet1!A160</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B160" t="str">
-        <f>Sheet1!B160</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C160">
-        <f>IF(Sheet1!C160&lt;4,Sheet1!C160,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D160">
-        <f>IF(Sheet1!D160&lt;3,Sheet1!D160,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E160">
-        <f>IF(Sheet1!E160&lt;2,Sheet1!E160,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" t="str">
-        <f>Sheet1!A161</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B161" t="str">
-        <f>Sheet1!B161</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C161">
-        <f>IF(Sheet1!C161&lt;4,Sheet1!C161,"")</f>
-        <v>2.315213</v>
-      </c>
-      <c r="D161">
-        <f>IF(Sheet1!D161&lt;3,Sheet1!D161,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E161">
-        <f>IF(Sheet1!E161&lt;2,Sheet1!E161,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" t="str">
-        <f>Sheet1!A162</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B162" t="str">
-        <f>Sheet1!B162</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C162">
-        <f>IF(Sheet1!C162&lt;4,Sheet1!C162,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D162">
-        <f>IF(Sheet1!D162&lt;3,Sheet1!D162,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E162">
-        <f>IF(Sheet1!E162&lt;2,Sheet1!E162,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" t="str">
-        <f>Sheet1!A163</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B163" t="str">
-        <f>Sheet1!B163</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C163">
-        <f>IF(Sheet1!C163&lt;4,Sheet1!C163,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D163">
-        <f>IF(Sheet1!D163&lt;3,Sheet1!D163,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E163">
-        <f>IF(Sheet1!E163&lt;2,Sheet1!E163,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" t="str">
-        <f>Sheet1!A164</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B164" t="str">
-        <f>Sheet1!B164</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C164">
-        <f>IF(Sheet1!C164&lt;4,Sheet1!C164,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="D164">
-        <f>IF(Sheet1!D164&lt;3,Sheet1!D164,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E164">
-        <f>IF(Sheet1!E164&lt;2,Sheet1!E164,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" t="str">
-        <f>Sheet1!A165</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B165" t="str">
-        <f>Sheet1!B165</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C165">
-        <f>IF(Sheet1!C165&lt;4,Sheet1!C165,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D165">
-        <f>IF(Sheet1!D165&lt;3,Sheet1!D165,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E165">
-        <f>IF(Sheet1!E165&lt;2,Sheet1!E165,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" t="str">
-        <f>Sheet1!A166</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B166" t="str">
-        <f>Sheet1!B166</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C166">
-        <f>IF(Sheet1!C166&lt;4,Sheet1!C166,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D166">
-        <f>IF(Sheet1!D166&lt;3,Sheet1!D166,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E166">
-        <f>IF(Sheet1!E166&lt;2,Sheet1!E166,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" t="str">
-        <f>Sheet1!A167</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B167" t="str">
-        <f>Sheet1!B167</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C167">
-        <f>IF(Sheet1!C167&lt;4,Sheet1!C167,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D167">
-        <f>IF(Sheet1!D167&lt;3,Sheet1!D167,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E167">
-        <f>IF(Sheet1!E167&lt;2,Sheet1!E167,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" t="str">
-        <f>Sheet1!A168</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B168" t="str">
-        <f>Sheet1!B168</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C168">
-        <f>IF(Sheet1!C168&lt;4,Sheet1!C168,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="D168">
-        <f>IF(Sheet1!D168&lt;3,Sheet1!D168,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E168">
-        <f>IF(Sheet1!E168&lt;2,Sheet1!E168,"")</f>
-        <v>0.94323486000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" t="str">
-        <f>Sheet1!A169</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B169" t="str">
-        <f>Sheet1!B169</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C169">
-        <f>IF(Sheet1!C169&lt;4,Sheet1!C169,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D169">
-        <f>IF(Sheet1!D169&lt;3,Sheet1!D169,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E169">
-        <f>IF(Sheet1!E169&lt;2,Sheet1!E169,"")</f>
-        <v>0.94323486000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" t="str">
-        <f>Sheet1!A170</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B170" t="str">
-        <f>Sheet1!B170</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C170">
-        <f>IF(Sheet1!C170&lt;4,Sheet1!C170,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D170">
-        <f>IF(Sheet1!D170&lt;3,Sheet1!D170,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E170">
-        <f>IF(Sheet1!E170&lt;2,Sheet1!E170,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" t="str">
-        <f>Sheet1!A171</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B171" t="str">
-        <f>Sheet1!B171</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C171">
-        <f>IF(Sheet1!C171&lt;4,Sheet1!C171,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D171">
-        <f>IF(Sheet1!D171&lt;3,Sheet1!D171,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E171">
-        <f>IF(Sheet1!E171&lt;2,Sheet1!E171,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" t="str">
-        <f>Sheet1!A172</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B172" t="str">
-        <f>Sheet1!B172</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C172">
-        <f>IF(Sheet1!C172&lt;4,Sheet1!C172,"")</f>
-        <v>2.1151328</v>
-      </c>
-      <c r="D172">
-        <f>IF(Sheet1!D172&lt;3,Sheet1!D172,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E172">
-        <f>IF(Sheet1!E172&lt;2,Sheet1!E172,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" t="str">
-        <f>Sheet1!A173</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B173" t="str">
-        <f>Sheet1!B173</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C173">
-        <f>IF(Sheet1!C173&lt;4,Sheet1!C173,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D173">
-        <f>IF(Sheet1!D173&lt;3,Sheet1!D173,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E173">
-        <f>IF(Sheet1!E173&lt;2,Sheet1!E173,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" t="str">
-        <f>Sheet1!A174</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B174" t="str">
-        <f>Sheet1!B174</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C174">
-        <f>IF(Sheet1!C174&lt;4,Sheet1!C174,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D174">
-        <f>IF(Sheet1!D174&lt;3,Sheet1!D174,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E174">
-        <f>IF(Sheet1!E174&lt;2,Sheet1!E174,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" t="str">
-        <f>Sheet1!A175</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B175" t="str">
-        <f>Sheet1!B175</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C175">
-        <f>IF(Sheet1!C175&lt;4,Sheet1!C175,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D175">
-        <f>IF(Sheet1!D175&lt;3,Sheet1!D175,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E175">
-        <f>IF(Sheet1!E175&lt;2,Sheet1!E175,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" t="str">
-        <f>Sheet1!A176</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B176" t="str">
-        <f>Sheet1!B176</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C176">
-        <f>IF(Sheet1!C176&lt;4,Sheet1!C176,"")</f>
-        <v>2.315213</v>
-      </c>
-      <c r="D176">
-        <f>IF(Sheet1!D176&lt;3,Sheet1!D176,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E176">
-        <f>IF(Sheet1!E176&lt;2,Sheet1!E176,"")</f>
-        <v>0.94323486000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" t="str">
-        <f>Sheet1!A177</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B177" t="str">
-        <f>Sheet1!B177</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C177">
-        <f>IF(Sheet1!C177&lt;4,Sheet1!C177,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D177">
-        <f>IF(Sheet1!D177&lt;3,Sheet1!D177,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E177">
-        <f>IF(Sheet1!E177&lt;2,Sheet1!E177,"")</f>
-        <v>0.91465205000000005</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" t="str">
-        <f>Sheet1!A178</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B178" t="str">
-        <f>Sheet1!B178</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C178">
-        <f>IF(Sheet1!C178&lt;4,Sheet1!C178,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D178">
-        <f>IF(Sheet1!D178&lt;3,Sheet1!D178,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E178">
-        <f>IF(Sheet1!E178&lt;2,Sheet1!E178,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" t="str">
-        <f>Sheet1!A179</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B179" t="str">
-        <f>Sheet1!B179</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C179">
-        <f>IF(Sheet1!C179&lt;4,Sheet1!C179,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D179">
-        <f>IF(Sheet1!D179&lt;3,Sheet1!D179,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E179">
-        <f>IF(Sheet1!E179&lt;2,Sheet1!E179,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" t="str">
-        <f>Sheet1!A180</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B180" t="str">
-        <f>Sheet1!B180</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C180">
-        <f>IF(Sheet1!C180&lt;4,Sheet1!C180,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D180">
-        <f>IF(Sheet1!D180&lt;3,Sheet1!D180,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E180" t="str">
-        <f>IF(Sheet1!E180&lt;2,Sheet1!E180,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" t="str">
-        <f>Sheet1!A181</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B181" t="str">
-        <f>Sheet1!B181</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C181">
-        <f>IF(Sheet1!C181&lt;4,Sheet1!C181,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D181">
-        <f>IF(Sheet1!D181&lt;3,Sheet1!D181,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E181">
-        <f>IF(Sheet1!E181&lt;2,Sheet1!E181,"")</f>
-        <v>0.91465205000000005</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" t="str">
-        <f>Sheet1!A182</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B182" t="str">
-        <f>Sheet1!B182</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C182">
-        <f>IF(Sheet1!C182&lt;4,Sheet1!C182,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D182">
-        <f>IF(Sheet1!D182&lt;3,Sheet1!D182,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E182">
-        <f>IF(Sheet1!E182&lt;2,Sheet1!E182,"")</f>
-        <v>0.85748625000000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="str">
-        <f>Sheet1!A183</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B183" t="str">
-        <f>Sheet1!B183</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C183">
-        <f>IF(Sheet1!C183&lt;4,Sheet1!C183,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D183">
-        <f>IF(Sheet1!D183&lt;3,Sheet1!D183,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E183">
-        <f>IF(Sheet1!E183&lt;2,Sheet1!E183,"")</f>
-        <v>0.8860692</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="str">
-        <f>Sheet1!A184</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B184" t="str">
-        <f>Sheet1!B184</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C184">
-        <f>IF(Sheet1!C184&lt;4,Sheet1!C184,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D184">
-        <f>IF(Sheet1!D184&lt;3,Sheet1!D184,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E184">
-        <f>IF(Sheet1!E184&lt;2,Sheet1!E184,"")</f>
-        <v>0.94323486000000001</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" t="str">
-        <f>Sheet1!A185</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B185" t="str">
-        <f>Sheet1!B185</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C185">
-        <f>IF(Sheet1!C185&lt;4,Sheet1!C185,"")</f>
-        <v>2.3723785999999998</v>
-      </c>
-      <c r="D185">
-        <f>IF(Sheet1!D185&lt;3,Sheet1!D185,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E185">
-        <f>IF(Sheet1!E185&lt;2,Sheet1!E185,"")</f>
-        <v>0.94323486000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" t="str">
-        <f>Sheet1!A186</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B186" t="str">
-        <f>Sheet1!B186</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C186">
-        <f>IF(Sheet1!C186&lt;4,Sheet1!C186,"")</f>
-        <v>2.3723785999999998</v>
-      </c>
-      <c r="D186">
-        <f>IF(Sheet1!D186&lt;3,Sheet1!D186,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E186">
-        <f>IF(Sheet1!E186&lt;2,Sheet1!E186,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" t="str">
-        <f>Sheet1!A187</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B187" t="str">
-        <f>Sheet1!B187</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C187">
-        <f>IF(Sheet1!C187&lt;4,Sheet1!C187,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D187">
-        <f>IF(Sheet1!D187&lt;3,Sheet1!D187,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E187">
-        <f>IF(Sheet1!E187&lt;2,Sheet1!E187,"")</f>
-        <v>0.94323486000000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" t="str">
-        <f>Sheet1!A188</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B188" t="str">
-        <f>Sheet1!B188</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C188">
-        <f>IF(Sheet1!C188&lt;4,Sheet1!C188,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D188">
-        <f>IF(Sheet1!D188&lt;3,Sheet1!D188,"")</f>
-        <v>1.7149725</v>
-      </c>
-      <c r="E188">
-        <f>IF(Sheet1!E188&lt;2,Sheet1!E188,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" t="str">
-        <f>Sheet1!A189</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B189" t="str">
-        <f>Sheet1!B189</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C189">
-        <f>IF(Sheet1!C189&lt;4,Sheet1!C189,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D189">
-        <f>IF(Sheet1!D189&lt;3,Sheet1!D189,"")</f>
-        <v>1.7721384</v>
-      </c>
-      <c r="E189">
-        <f>IF(Sheet1!E189&lt;2,Sheet1!E189,"")</f>
-        <v>0.94323486000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" t="str">
-        <f>Sheet1!A190</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B190" t="str">
-        <f>Sheet1!B190</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C190">
-        <f>IF(Sheet1!C190&lt;4,Sheet1!C190,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D190">
-        <f>IF(Sheet1!D190&lt;3,Sheet1!D190,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E190">
-        <f>IF(Sheet1!E190&lt;2,Sheet1!E190,"")</f>
-        <v>0.8860692</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" t="str">
-        <f>Sheet1!A191</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B191" t="str">
-        <f>Sheet1!B191</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C191">
-        <f>IF(Sheet1!C191&lt;4,Sheet1!C191,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D191">
-        <f>IF(Sheet1!D191&lt;3,Sheet1!D191,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E191">
-        <f>IF(Sheet1!E191&lt;2,Sheet1!E191,"")</f>
-        <v>0.82890344000000005</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" t="str">
-        <f>Sheet1!A192</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B192" t="str">
-        <f>Sheet1!B192</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C192">
-        <f>IF(Sheet1!C192&lt;4,Sheet1!C192,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D192">
-        <f>IF(Sheet1!D192&lt;3,Sheet1!D192,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E192">
-        <f>IF(Sheet1!E192&lt;2,Sheet1!E192,"")</f>
-        <v>0.85748625000000001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" t="str">
-        <f>Sheet1!A193</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B193" t="str">
-        <f>Sheet1!B193</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C193">
-        <f>IF(Sheet1!C193&lt;4,Sheet1!C193,"")</f>
-        <v>2.1437156000000002</v>
-      </c>
-      <c r="D193">
-        <f>IF(Sheet1!D193&lt;3,Sheet1!D193,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E193">
-        <f>IF(Sheet1!E193&lt;2,Sheet1!E193,"")</f>
-        <v>0.91465205000000005</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" t="str">
-        <f>Sheet1!A194</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B194" t="str">
-        <f>Sheet1!B194</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C194">
-        <f>IF(Sheet1!C194&lt;4,Sheet1!C194,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D194">
-        <f>IF(Sheet1!D194&lt;3,Sheet1!D194,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E194">
-        <f>IF(Sheet1!E194&lt;2,Sheet1!E194,"")</f>
-        <v>0.91465205000000005</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" t="str">
-        <f>Sheet1!A195</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B195" t="str">
-        <f>Sheet1!B195</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C195">
-        <f>IF(Sheet1!C195&lt;4,Sheet1!C195,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D195">
-        <f>IF(Sheet1!D195&lt;3,Sheet1!D195,"")</f>
-        <v>2.0293841000000001</v>
-      </c>
-      <c r="E195">
-        <f>IF(Sheet1!E195&lt;2,Sheet1!E195,"")</f>
-        <v>0.94323486000000001</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" t="str">
-        <f>Sheet1!A196</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B196" t="str">
-        <f>Sheet1!B196</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C196">
-        <f>IF(Sheet1!C196&lt;4,Sheet1!C196,"")</f>
-        <v>2.1437156000000002</v>
-      </c>
-      <c r="D196">
-        <f>IF(Sheet1!D196&lt;3,Sheet1!D196,"")</f>
-        <v>1.7435554</v>
-      </c>
-      <c r="E196">
-        <f>IF(Sheet1!E196&lt;2,Sheet1!E196,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" t="str">
-        <f>Sheet1!A197</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B197" t="str">
-        <f>Sheet1!B197</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C197" t="str">
-        <f>IF(Sheet1!C197&lt;4,Sheet1!C197,"")</f>
-        <v/>
-      </c>
-      <c r="D197">
-        <f>IF(Sheet1!D197&lt;3,Sheet1!D197,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="E197">
-        <f>IF(Sheet1!E197&lt;2,Sheet1!E197,"")</f>
-        <v>0.82890344000000005</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" t="str">
-        <f>Sheet1!A198</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B198" t="str">
-        <f>Sheet1!B198</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C198" t="str">
-        <f>IF(Sheet1!C198&lt;4,Sheet1!C198,"")</f>
-        <v/>
-      </c>
-      <c r="D198">
-        <f>IF(Sheet1!D198&lt;3,Sheet1!D198,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="E198">
-        <f>IF(Sheet1!E198&lt;2,Sheet1!E198,"")</f>
-        <v>0.85748625000000001</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" t="str">
-        <f>Sheet1!A199</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B199" t="str">
-        <f>Sheet1!B199</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C199">
-        <f>IF(Sheet1!C199&lt;4,Sheet1!C199,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D199">
-        <f>IF(Sheet1!D199&lt;3,Sheet1!D199,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E199">
-        <f>IF(Sheet1!E199&lt;2,Sheet1!E199,"")</f>
-        <v>0.91465205000000005</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" t="str">
-        <f>Sheet1!A200</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B200" t="str">
-        <f>Sheet1!B200</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C200">
-        <f>IF(Sheet1!C200&lt;4,Sheet1!C200,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D200">
-        <f>IF(Sheet1!D200&lt;3,Sheet1!D200,"")</f>
-        <v>1.7149725</v>
-      </c>
-      <c r="E200">
-        <f>IF(Sheet1!E200&lt;2,Sheet1!E200,"")</f>
-        <v>0.82890344000000005</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" t="str">
-        <f>Sheet1!A201</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B201" t="str">
-        <f>Sheet1!B201</f>
-        <v>Pocket to Speaker</v>
-      </c>
-      <c r="C201">
-        <f>IF(Sheet1!C201&lt;4,Sheet1!C201,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D201">
-        <f>IF(Sheet1!D201&lt;3,Sheet1!D201,"")</f>
-        <v>1.7435554</v>
-      </c>
-      <c r="E201">
-        <f>IF(Sheet1!E201&lt;2,Sheet1!E201,"")</f>
-        <v>0.80032049999999999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" t="str">
-        <f>Sheet1!A202</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B202" t="str">
-        <f>Sheet1!B202</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C202">
-        <f>IF(Sheet1!C202&lt;4,Sheet1!C202,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D202">
-        <f>IF(Sheet1!D202&lt;3,Sheet1!D202,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E202">
-        <f>IF(Sheet1!E202&lt;2,Sheet1!E202,"")</f>
-        <v>1.2862294000000001</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" t="str">
-        <f>Sheet1!A203</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B203" t="str">
-        <f>Sheet1!B203</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C203">
-        <f>IF(Sheet1!C203&lt;4,Sheet1!C203,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D203">
-        <f>IF(Sheet1!D203&lt;3,Sheet1!D203,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="E203">
-        <f>IF(Sheet1!E203&lt;2,Sheet1!E203,"")</f>
-        <v>1.4005609000000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" t="str">
-        <f>Sheet1!A204</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B204" t="str">
-        <f>Sheet1!B204</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C204">
-        <f>IF(Sheet1!C204&lt;4,Sheet1!C204,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D204">
-        <f>IF(Sheet1!D204&lt;3,Sheet1!D204,"")</f>
-        <v>1.4577267</v>
-      </c>
-      <c r="E204">
-        <f>IF(Sheet1!E204&lt;2,Sheet1!E204,"")</f>
-        <v>1.3719779000000001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" t="str">
-        <f>Sheet1!A205</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B205" t="str">
-        <f>Sheet1!B205</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C205">
-        <f>IF(Sheet1!C205&lt;4,Sheet1!C205,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D205">
-        <f>IF(Sheet1!D205&lt;3,Sheet1!D205,"")</f>
-        <v>1.3719779000000001</v>
-      </c>
-      <c r="E205">
-        <f>IF(Sheet1!E205&lt;2,Sheet1!E205,"")</f>
-        <v>1.2576465999999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" t="str">
-        <f>Sheet1!A206</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B206" t="str">
-        <f>Sheet1!B206</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C206">
-        <f>IF(Sheet1!C206&lt;4,Sheet1!C206,"")</f>
-        <v>2.1151328</v>
-      </c>
-      <c r="D206">
-        <f>IF(Sheet1!D206&lt;3,Sheet1!D206,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E206">
-        <f>IF(Sheet1!E206&lt;2,Sheet1!E206,"")</f>
-        <v>1.2290635999999999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" t="str">
-        <f>Sheet1!A207</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B207" t="str">
-        <f>Sheet1!B207</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C207">
-        <f>IF(Sheet1!C207&lt;4,Sheet1!C207,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D207">
-        <f>IF(Sheet1!D207&lt;3,Sheet1!D207,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E207">
-        <f>IF(Sheet1!E207&lt;2,Sheet1!E207,"")</f>
-        <v>1.2290635999999999</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" t="str">
-        <f>Sheet1!A208</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B208" t="str">
-        <f>Sheet1!B208</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C208">
-        <f>IF(Sheet1!C208&lt;4,Sheet1!C208,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D208">
-        <f>IF(Sheet1!D208&lt;3,Sheet1!D208,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E208">
-        <f>IF(Sheet1!E208&lt;2,Sheet1!E208,"")</f>
-        <v>1.2290635999999999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" t="str">
-        <f>Sheet1!A209</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B209" t="str">
-        <f>Sheet1!B209</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C209">
-        <f>IF(Sheet1!C209&lt;4,Sheet1!C209,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D209">
-        <f>IF(Sheet1!D209&lt;3,Sheet1!D209,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E209">
-        <f>IF(Sheet1!E209&lt;2,Sheet1!E209,"")</f>
-        <v>1.2576465999999999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" t="str">
-        <f>Sheet1!A210</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B210" t="str">
-        <f>Sheet1!B210</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C210">
-        <f>IF(Sheet1!C210&lt;4,Sheet1!C210,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="D210">
-        <f>IF(Sheet1!D210&lt;3,Sheet1!D210,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E210">
-        <f>IF(Sheet1!E210&lt;2,Sheet1!E210,"")</f>
-        <v>1.2862294000000001</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" t="str">
-        <f>Sheet1!A211</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B211" t="str">
-        <f>Sheet1!B211</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C211">
-        <f>IF(Sheet1!C211&lt;4,Sheet1!C211,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D211">
-        <f>IF(Sheet1!D211&lt;3,Sheet1!D211,"")</f>
-        <v>1.7435554</v>
-      </c>
-      <c r="E211">
-        <f>IF(Sheet1!E211&lt;2,Sheet1!E211,"")</f>
-        <v>1.2862294000000001</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="str">
-        <f>Sheet1!A212</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B212" t="str">
-        <f>Sheet1!B212</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C212">
-        <f>IF(Sheet1!C212&lt;4,Sheet1!C212,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D212">
-        <f>IF(Sheet1!D212&lt;3,Sheet1!D212,"")</f>
-        <v>1.7435554</v>
-      </c>
-      <c r="E212">
-        <f>IF(Sheet1!E212&lt;2,Sheet1!E212,"")</f>
-        <v>1.2290635999999999</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" t="str">
-        <f>Sheet1!A213</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B213" t="str">
-        <f>Sheet1!B213</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C213">
-        <f>IF(Sheet1!C213&lt;4,Sheet1!C213,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D213">
-        <f>IF(Sheet1!D213&lt;3,Sheet1!D213,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E213">
-        <f>IF(Sheet1!E213&lt;2,Sheet1!E213,"")</f>
-        <v>1.4577267</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" t="str">
-        <f>Sheet1!A214</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B214" t="str">
-        <f>Sheet1!B214</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C214">
-        <f>IF(Sheet1!C214&lt;4,Sheet1!C214,"")</f>
-        <v>2.0293841000000001</v>
-      </c>
-      <c r="D214">
-        <f>IF(Sheet1!D214&lt;3,Sheet1!D214,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E214">
-        <f>IF(Sheet1!E214&lt;2,Sheet1!E214,"")</f>
-        <v>1.4577267</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" t="str">
-        <f>Sheet1!A215</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B215" t="str">
-        <f>Sheet1!B215</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C215">
-        <f>IF(Sheet1!C215&lt;4,Sheet1!C215,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D215">
-        <f>IF(Sheet1!D215&lt;3,Sheet1!D215,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E215">
-        <f>IF(Sheet1!E215&lt;2,Sheet1!E215,"")</f>
-        <v>1.3433952</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" t="str">
-        <f>Sheet1!A216</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B216" t="str">
-        <f>Sheet1!B216</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C216">
-        <f>IF(Sheet1!C216&lt;4,Sheet1!C216,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D216">
-        <f>IF(Sheet1!D216&lt;3,Sheet1!D216,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E216">
-        <f>IF(Sheet1!E216&lt;2,Sheet1!E216,"")</f>
-        <v>1.2862294000000001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="str">
-        <f>Sheet1!A217</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B217" t="str">
-        <f>Sheet1!B217</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C217">
-        <f>IF(Sheet1!C217&lt;4,Sheet1!C217,"")</f>
-        <v>2.1151328</v>
-      </c>
-      <c r="D217">
-        <f>IF(Sheet1!D217&lt;3,Sheet1!D217,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E217">
-        <f>IF(Sheet1!E217&lt;2,Sheet1!E217,"")</f>
-        <v>1.2862294000000001</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" t="str">
-        <f>Sheet1!A218</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B218" t="str">
-        <f>Sheet1!B218</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C218">
-        <f>IF(Sheet1!C218&lt;4,Sheet1!C218,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D218">
-        <f>IF(Sheet1!D218&lt;3,Sheet1!D218,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E218">
-        <f>IF(Sheet1!E218&lt;2,Sheet1!E218,"")</f>
-        <v>1.3148123</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" t="str">
-        <f>Sheet1!A219</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B219" t="str">
-        <f>Sheet1!B219</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C219">
-        <f>IF(Sheet1!C219&lt;4,Sheet1!C219,"")</f>
-        <v>2.3723785999999998</v>
-      </c>
-      <c r="D219">
-        <f>IF(Sheet1!D219&lt;3,Sheet1!D219,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E219">
-        <f>IF(Sheet1!E219&lt;2,Sheet1!E219,"")</f>
-        <v>1.4005609000000001</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" t="str">
-        <f>Sheet1!A220</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B220" t="str">
-        <f>Sheet1!B220</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C220">
-        <f>IF(Sheet1!C220&lt;4,Sheet1!C220,"")</f>
-        <v>2.3723785999999998</v>
-      </c>
-      <c r="D220">
-        <f>IF(Sheet1!D220&lt;3,Sheet1!D220,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E220">
-        <f>IF(Sheet1!E220&lt;2,Sheet1!E220,"")</f>
-        <v>1.3719779000000001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" t="str">
-        <f>Sheet1!A221</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B221" t="str">
-        <f>Sheet1!B221</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C221">
-        <f>IF(Sheet1!C221&lt;4,Sheet1!C221,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D221">
-        <f>IF(Sheet1!D221&lt;3,Sheet1!D221,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E221">
-        <f>IF(Sheet1!E221&lt;2,Sheet1!E221,"")</f>
-        <v>1.3433952</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" t="str">
-        <f>Sheet1!A222</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B222" t="str">
-        <f>Sheet1!B222</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C222">
-        <f>IF(Sheet1!C222&lt;4,Sheet1!C222,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="D222">
-        <f>IF(Sheet1!D222&lt;3,Sheet1!D222,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E222">
-        <f>IF(Sheet1!E222&lt;2,Sheet1!E222,"")</f>
-        <v>1.3433952</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" t="str">
-        <f>Sheet1!A223</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B223" t="str">
-        <f>Sheet1!B223</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C223">
-        <f>IF(Sheet1!C223&lt;4,Sheet1!C223,"")</f>
-        <v>2.1437156000000002</v>
-      </c>
-      <c r="D223">
-        <f>IF(Sheet1!D223&lt;3,Sheet1!D223,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E223">
-        <f>IF(Sheet1!E223&lt;2,Sheet1!E223,"")</f>
-        <v>1.4005609000000001</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" t="str">
-        <f>Sheet1!A224</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B224" t="str">
-        <f>Sheet1!B224</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C224">
-        <f>IF(Sheet1!C224&lt;4,Sheet1!C224,"")</f>
-        <v>2.1437156000000002</v>
-      </c>
-      <c r="D224">
-        <f>IF(Sheet1!D224&lt;3,Sheet1!D224,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E224">
-        <f>IF(Sheet1!E224&lt;2,Sheet1!E224,"")</f>
-        <v>1.5148925</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" t="str">
-        <f>Sheet1!A225</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B225" t="str">
-        <f>Sheet1!B225</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C225" t="str">
-        <f>IF(Sheet1!C225&lt;4,Sheet1!C225,"")</f>
-        <v/>
-      </c>
-      <c r="D225">
-        <f>IF(Sheet1!D225&lt;3,Sheet1!D225,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E225">
-        <f>IF(Sheet1!E225&lt;2,Sheet1!E225,"")</f>
-        <v>1.2004808</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" t="str">
-        <f>Sheet1!A226</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B226" t="str">
-        <f>Sheet1!B226</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C226" t="str">
-        <f>IF(Sheet1!C226&lt;4,Sheet1!C226,"")</f>
-        <v/>
-      </c>
-      <c r="D226">
-        <f>IF(Sheet1!D226&lt;3,Sheet1!D226,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E226">
-        <f>IF(Sheet1!E226&lt;2,Sheet1!E226,"")</f>
-        <v>1.2004808</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" t="str">
-        <f>Sheet1!A227</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B227" t="str">
-        <f>Sheet1!B227</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C227">
-        <f>IF(Sheet1!C227&lt;4,Sheet1!C227,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D227">
-        <f>IF(Sheet1!D227&lt;3,Sheet1!D227,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E227">
-        <f>IF(Sheet1!E227&lt;2,Sheet1!E227,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" t="str">
-        <f>Sheet1!A228</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B228" t="str">
-        <f>Sheet1!B228</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C228">
-        <f>IF(Sheet1!C228&lt;4,Sheet1!C228,"")</f>
-        <v>2.1151328</v>
-      </c>
-      <c r="D228">
-        <f>IF(Sheet1!D228&lt;3,Sheet1!D228,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E228">
-        <f>IF(Sheet1!E228&lt;2,Sheet1!E228,"")</f>
-        <v>0.91465205000000005</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" t="str">
-        <f>Sheet1!A229</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B229" t="str">
-        <f>Sheet1!B229</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C229">
-        <f>IF(Sheet1!C229&lt;4,Sheet1!C229,"")</f>
-        <v>2.1151328</v>
-      </c>
-      <c r="D229">
-        <f>IF(Sheet1!D229&lt;3,Sheet1!D229,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E229">
-        <f>IF(Sheet1!E229&lt;2,Sheet1!E229,"")</f>
-        <v>0.97181779999999995</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" t="str">
-        <f>Sheet1!A230</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B230" t="str">
-        <f>Sheet1!B230</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C230">
-        <f>IF(Sheet1!C230&lt;4,Sheet1!C230,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D230">
-        <f>IF(Sheet1!D230&lt;3,Sheet1!D230,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E230">
-        <f>IF(Sheet1!E230&lt;2,Sheet1!E230,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" t="str">
-        <f>Sheet1!A231</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B231" t="str">
-        <f>Sheet1!B231</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C231">
-        <f>IF(Sheet1!C231&lt;4,Sheet1!C231,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D231">
-        <f>IF(Sheet1!D231&lt;3,Sheet1!D231,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E231">
-        <f>IF(Sheet1!E231&lt;2,Sheet1!E231,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" t="str">
-        <f>Sheet1!A232</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B232" t="str">
-        <f>Sheet1!B232</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C232">
-        <f>IF(Sheet1!C232&lt;4,Sheet1!C232,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D232">
-        <f>IF(Sheet1!D232&lt;3,Sheet1!D232,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E232">
-        <f>IF(Sheet1!E232&lt;2,Sheet1!E232,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" t="str">
-        <f>Sheet1!A233</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B233" t="str">
-        <f>Sheet1!B233</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C233">
-        <f>IF(Sheet1!C233&lt;4,Sheet1!C233,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D233">
-        <f>IF(Sheet1!D233&lt;3,Sheet1!D233,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E233">
-        <f>IF(Sheet1!E233&lt;2,Sheet1!E233,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" t="str">
-        <f>Sheet1!A234</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B234" t="str">
-        <f>Sheet1!B234</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C234">
-        <f>IF(Sheet1!C234&lt;4,Sheet1!C234,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D234">
-        <f>IF(Sheet1!D234&lt;3,Sheet1!D234,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E234">
-        <f>IF(Sheet1!E234&lt;2,Sheet1!E234,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" t="str">
-        <f>Sheet1!A235</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B235" t="str">
-        <f>Sheet1!B235</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C235">
-        <f>IF(Sheet1!C235&lt;4,Sheet1!C235,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="D235">
-        <f>IF(Sheet1!D235&lt;3,Sheet1!D235,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E235">
-        <f>IF(Sheet1!E235&lt;2,Sheet1!E235,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" t="str">
-        <f>Sheet1!A236</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B236" t="str">
-        <f>Sheet1!B236</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C236">
-        <f>IF(Sheet1!C236&lt;4,Sheet1!C236,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D236">
-        <f>IF(Sheet1!D236&lt;3,Sheet1!D236,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E236">
-        <f>IF(Sheet1!E236&lt;2,Sheet1!E236,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" t="str">
-        <f>Sheet1!A237</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B237" t="str">
-        <f>Sheet1!B237</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C237">
-        <f>IF(Sheet1!C237&lt;4,Sheet1!C237,"")</f>
-        <v>2.1151328</v>
-      </c>
-      <c r="D237">
-        <f>IF(Sheet1!D237&lt;3,Sheet1!D237,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E237">
-        <f>IF(Sheet1!E237&lt;2,Sheet1!E237,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" t="str">
-        <f>Sheet1!A238</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B238" t="str">
-        <f>Sheet1!B238</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C238">
-        <f>IF(Sheet1!C238&lt;4,Sheet1!C238,"")</f>
-        <v>2.1437156000000002</v>
-      </c>
-      <c r="D238">
-        <f>IF(Sheet1!D238&lt;3,Sheet1!D238,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E238">
-        <f>IF(Sheet1!E238&lt;2,Sheet1!E238,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" t="str">
-        <f>Sheet1!A239</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B239" t="str">
-        <f>Sheet1!B239</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C239">
-        <f>IF(Sheet1!C239&lt;4,Sheet1!C239,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D239">
-        <f>IF(Sheet1!D239&lt;3,Sheet1!D239,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E239">
-        <f>IF(Sheet1!E239&lt;2,Sheet1!E239,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" t="str">
-        <f>Sheet1!A240</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B240" t="str">
-        <f>Sheet1!B240</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C240">
-        <f>IF(Sheet1!C240&lt;4,Sheet1!C240,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D240">
-        <f>IF(Sheet1!D240&lt;3,Sheet1!D240,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E240">
-        <f>IF(Sheet1!E240&lt;2,Sheet1!E240,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" t="str">
-        <f>Sheet1!A241</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B241" t="str">
-        <f>Sheet1!B241</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C241">
-        <f>IF(Sheet1!C241&lt;4,Sheet1!C241,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D241">
-        <f>IF(Sheet1!D241&lt;3,Sheet1!D241,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E241">
-        <f>IF(Sheet1!E241&lt;2,Sheet1!E241,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" t="str">
-        <f>Sheet1!A242</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B242" t="str">
-        <f>Sheet1!B242</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C242">
-        <f>IF(Sheet1!C242&lt;4,Sheet1!C242,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D242">
-        <f>IF(Sheet1!D242&lt;3,Sheet1!D242,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E242">
-        <f>IF(Sheet1!E242&lt;2,Sheet1!E242,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" t="str">
-        <f>Sheet1!A243</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B243" t="str">
-        <f>Sheet1!B243</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C243">
-        <f>IF(Sheet1!C243&lt;4,Sheet1!C243,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D243">
-        <f>IF(Sheet1!D243&lt;3,Sheet1!D243,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E243">
-        <f>IF(Sheet1!E243&lt;2,Sheet1!E243,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" t="str">
-        <f>Sheet1!A244</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B244" t="str">
-        <f>Sheet1!B244</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C244">
-        <f>IF(Sheet1!C244&lt;4,Sheet1!C244,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="D244">
-        <f>IF(Sheet1!D244&lt;3,Sheet1!D244,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E244">
-        <f>IF(Sheet1!E244&lt;2,Sheet1!E244,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" t="str">
-        <f>Sheet1!A245</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B245" t="str">
-        <f>Sheet1!B245</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C245">
-        <f>IF(Sheet1!C245&lt;4,Sheet1!C245,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D245">
-        <f>IF(Sheet1!D245&lt;3,Sheet1!D245,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E245">
-        <f>IF(Sheet1!E245&lt;2,Sheet1!E245,"")</f>
-        <v>1.2004808</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" t="str">
-        <f>Sheet1!A246</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B246" t="str">
-        <f>Sheet1!B246</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C246">
-        <f>IF(Sheet1!C246&lt;4,Sheet1!C246,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D246">
-        <f>IF(Sheet1!D246&lt;3,Sheet1!D246,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E246">
-        <f>IF(Sheet1!E246&lt;2,Sheet1!E246,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" t="str">
-        <f>Sheet1!A247</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B247" t="str">
-        <f>Sheet1!B247</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C247">
-        <f>IF(Sheet1!C247&lt;4,Sheet1!C247,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D247">
-        <f>IF(Sheet1!D247&lt;3,Sheet1!D247,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E247">
-        <f>IF(Sheet1!E247&lt;2,Sheet1!E247,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" t="str">
-        <f>Sheet1!A248</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B248" t="str">
-        <f>Sheet1!B248</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C248">
-        <f>IF(Sheet1!C248&lt;4,Sheet1!C248,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D248">
-        <f>IF(Sheet1!D248&lt;3,Sheet1!D248,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E248">
-        <f>IF(Sheet1!E248&lt;2,Sheet1!E248,"")</f>
-        <v>1.2290635999999999</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" t="str">
-        <f>Sheet1!A249</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B249" t="str">
-        <f>Sheet1!B249</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C249">
-        <f>IF(Sheet1!C249&lt;4,Sheet1!C249,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D249">
-        <f>IF(Sheet1!D249&lt;3,Sheet1!D249,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E249">
-        <f>IF(Sheet1!E249&lt;2,Sheet1!E249,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" t="str">
-        <f>Sheet1!A250</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B250" t="str">
-        <f>Sheet1!B250</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C250">
-        <f>IF(Sheet1!C250&lt;4,Sheet1!C250,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D250">
-        <f>IF(Sheet1!D250&lt;3,Sheet1!D250,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E250" t="str">
-        <f>IF(Sheet1!E250&lt;2,Sheet1!E250,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" t="str">
-        <f>Sheet1!A251</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B251" t="str">
-        <f>Sheet1!B251</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C251">
-        <f>IF(Sheet1!C251&lt;4,Sheet1!C251,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D251">
-        <f>IF(Sheet1!D251&lt;3,Sheet1!D251,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E251" t="str">
-        <f>IF(Sheet1!E251&lt;2,Sheet1!E251,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" t="str">
-        <f>Sheet1!A252</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B252" t="str">
-        <f>Sheet1!B252</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C252">
-        <f>IF(Sheet1!C252&lt;4,Sheet1!C252,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D252">
-        <f>IF(Sheet1!D252&lt;3,Sheet1!D252,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E252">
-        <f>IF(Sheet1!E252&lt;2,Sheet1!E252,"")</f>
-        <v>1.2290635999999999</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" t="str">
-        <f>Sheet1!A253</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B253" t="str">
-        <f>Sheet1!B253</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C253">
-        <f>IF(Sheet1!C253&lt;4,Sheet1!C253,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D253">
-        <f>IF(Sheet1!D253&lt;3,Sheet1!D253,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E253">
-        <f>IF(Sheet1!E253&lt;2,Sheet1!E253,"")</f>
-        <v>1.2576465999999999</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" t="str">
-        <f>Sheet1!A254</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B254" t="str">
-        <f>Sheet1!B254</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C254">
-        <f>IF(Sheet1!C254&lt;4,Sheet1!C254,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D254">
-        <f>IF(Sheet1!D254&lt;3,Sheet1!D254,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E254">
-        <f>IF(Sheet1!E254&lt;2,Sheet1!E254,"")</f>
-        <v>1.2576465999999999</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" t="str">
-        <f>Sheet1!A255</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B255" t="str">
-        <f>Sheet1!B255</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C255">
-        <f>IF(Sheet1!C255&lt;4,Sheet1!C255,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D255">
-        <f>IF(Sheet1!D255&lt;3,Sheet1!D255,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E255">
-        <f>IF(Sheet1!E255&lt;2,Sheet1!E255,"")</f>
-        <v>1.2576465999999999</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" t="str">
-        <f>Sheet1!A256</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B256" t="str">
-        <f>Sheet1!B256</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C256">
-        <f>IF(Sheet1!C256&lt;4,Sheet1!C256,"")</f>
-        <v>2.0293841000000001</v>
-      </c>
-      <c r="D256">
-        <f>IF(Sheet1!D256&lt;3,Sheet1!D256,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E256">
-        <f>IF(Sheet1!E256&lt;2,Sheet1!E256,"")</f>
-        <v>1.3148123</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" t="str">
-        <f>Sheet1!A257</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B257" t="str">
-        <f>Sheet1!B257</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C257">
-        <f>IF(Sheet1!C257&lt;4,Sheet1!C257,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D257">
-        <f>IF(Sheet1!D257&lt;3,Sheet1!D257,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E257">
-        <f>IF(Sheet1!E257&lt;2,Sheet1!E257,"")</f>
-        <v>1.2862294000000001</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" t="str">
-        <f>Sheet1!A258</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B258" t="str">
-        <f>Sheet1!B258</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C258">
-        <f>IF(Sheet1!C258&lt;4,Sheet1!C258,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D258">
-        <f>IF(Sheet1!D258&lt;3,Sheet1!D258,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E258">
-        <f>IF(Sheet1!E258&lt;2,Sheet1!E258,"")</f>
-        <v>1.2290635999999999</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" t="str">
-        <f>Sheet1!A259</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B259" t="str">
-        <f>Sheet1!B259</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C259">
-        <f>IF(Sheet1!C259&lt;4,Sheet1!C259,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D259">
-        <f>IF(Sheet1!D259&lt;3,Sheet1!D259,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E259">
-        <f>IF(Sheet1!E259&lt;2,Sheet1!E259,"")</f>
-        <v>1.1718979</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" t="str">
-        <f>Sheet1!A260</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B260" t="str">
-        <f>Sheet1!B260</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C260">
-        <f>IF(Sheet1!C260&lt;4,Sheet1!C260,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D260">
-        <f>IF(Sheet1!D260&lt;3,Sheet1!D260,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E260">
-        <f>IF(Sheet1!E260&lt;2,Sheet1!E260,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" t="str">
-        <f>Sheet1!A261</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B261" t="str">
-        <f>Sheet1!B261</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C261" t="str">
-        <f>IF(Sheet1!C261&lt;4,Sheet1!C261,"")</f>
-        <v/>
-      </c>
-      <c r="D261">
-        <f>IF(Sheet1!D261&lt;3,Sheet1!D261,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E261">
-        <f>IF(Sheet1!E261&lt;2,Sheet1!E261,"")</f>
-        <v>1.2004808</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" t="str">
-        <f>Sheet1!A262</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B262" t="str">
-        <f>Sheet1!B262</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C262">
-        <f>IF(Sheet1!C262&lt;4,Sheet1!C262,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D262">
-        <f>IF(Sheet1!D262&lt;3,Sheet1!D262,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E262">
-        <f>IF(Sheet1!E262&lt;2,Sheet1!E262,"")</f>
-        <v>1.2290635999999999</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" t="str">
-        <f>Sheet1!A263</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B263" t="str">
-        <f>Sheet1!B263</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C263">
-        <f>IF(Sheet1!C263&lt;4,Sheet1!C263,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D263">
-        <f>IF(Sheet1!D263&lt;3,Sheet1!D263,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E263">
-        <f>IF(Sheet1!E263&lt;2,Sheet1!E263,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" t="str">
-        <f>Sheet1!A264</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B264" t="str">
-        <f>Sheet1!B264</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C264">
-        <f>IF(Sheet1!C264&lt;4,Sheet1!C264,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="D264">
-        <f>IF(Sheet1!D264&lt;3,Sheet1!D264,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E264">
-        <f>IF(Sheet1!E264&lt;2,Sheet1!E264,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" t="str">
-        <f>Sheet1!A265</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B265" t="str">
-        <f>Sheet1!B265</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C265">
-        <f>IF(Sheet1!C265&lt;4,Sheet1!C265,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D265">
-        <f>IF(Sheet1!D265&lt;3,Sheet1!D265,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E265">
-        <f>IF(Sheet1!E265&lt;2,Sheet1!E265,"")</f>
-        <v>1.2004808</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" t="str">
-        <f>Sheet1!A266</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B266" t="str">
-        <f>Sheet1!B266</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C266">
-        <f>IF(Sheet1!C266&lt;4,Sheet1!C266,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D266">
-        <f>IF(Sheet1!D266&lt;3,Sheet1!D266,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E266">
-        <f>IF(Sheet1!E266&lt;2,Sheet1!E266,"")</f>
-        <v>1.2576465999999999</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" t="str">
-        <f>Sheet1!A267</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B267" t="str">
-        <f>Sheet1!B267</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C267">
-        <f>IF(Sheet1!C267&lt;4,Sheet1!C267,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="D267">
-        <f>IF(Sheet1!D267&lt;3,Sheet1!D267,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E267">
-        <f>IF(Sheet1!E267&lt;2,Sheet1!E267,"")</f>
-        <v>1.2290635999999999</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" t="str">
-        <f>Sheet1!A268</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B268" t="str">
-        <f>Sheet1!B268</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C268">
-        <f>IF(Sheet1!C268&lt;4,Sheet1!C268,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="D268">
-        <f>IF(Sheet1!D268&lt;3,Sheet1!D268,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E268">
-        <f>IF(Sheet1!E268&lt;2,Sheet1!E268,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" t="str">
-        <f>Sheet1!A269</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B269" t="str">
-        <f>Sheet1!B269</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C269">
-        <f>IF(Sheet1!C269&lt;4,Sheet1!C269,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D269">
-        <f>IF(Sheet1!D269&lt;3,Sheet1!D269,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E269">
-        <f>IF(Sheet1!E269&lt;2,Sheet1!E269,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" t="str">
-        <f>Sheet1!A270</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B270" t="str">
-        <f>Sheet1!B270</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C270">
-        <f>IF(Sheet1!C270&lt;4,Sheet1!C270,"")</f>
-        <v>2.1437156000000002</v>
-      </c>
-      <c r="D270">
-        <f>IF(Sheet1!D270&lt;3,Sheet1!D270,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E270">
-        <f>IF(Sheet1!E270&lt;2,Sheet1!E270,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" t="str">
-        <f>Sheet1!A271</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B271" t="str">
-        <f>Sheet1!B271</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C271">
-        <f>IF(Sheet1!C271&lt;4,Sheet1!C271,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D271">
-        <f>IF(Sheet1!D271&lt;3,Sheet1!D271,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E271">
-        <f>IF(Sheet1!E271&lt;2,Sheet1!E271,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" t="str">
-        <f>Sheet1!A272</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B272" t="str">
-        <f>Sheet1!B272</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C272">
-        <f>IF(Sheet1!C272&lt;4,Sheet1!C272,"")</f>
-        <v>2.2294643000000001</v>
-      </c>
-      <c r="D272">
-        <f>IF(Sheet1!D272&lt;3,Sheet1!D272,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E272">
-        <f>IF(Sheet1!E272&lt;2,Sheet1!E272,"")</f>
-        <v>1.0004006999999999</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" t="str">
-        <f>Sheet1!A273</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B273" t="str">
-        <f>Sheet1!B273</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C273">
-        <f>IF(Sheet1!C273&lt;4,Sheet1!C273,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D273">
-        <f>IF(Sheet1!D273&lt;3,Sheet1!D273,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E273">
-        <f>IF(Sheet1!E273&lt;2,Sheet1!E273,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" t="str">
-        <f>Sheet1!A274</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B274" t="str">
-        <f>Sheet1!B274</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C274">
-        <f>IF(Sheet1!C274&lt;4,Sheet1!C274,"")</f>
-        <v>2.2866301999999998</v>
-      </c>
-      <c r="D274">
-        <f>IF(Sheet1!D274&lt;3,Sheet1!D274,"")</f>
-        <v>1.7149725</v>
-      </c>
-      <c r="E274">
-        <f>IF(Sheet1!E274&lt;2,Sheet1!E274,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" t="str">
-        <f>Sheet1!A275</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B275" t="str">
-        <f>Sheet1!B275</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C275">
-        <f>IF(Sheet1!C275&lt;4,Sheet1!C275,"")</f>
-        <v>2.1722983999999999</v>
-      </c>
-      <c r="D275">
-        <f>IF(Sheet1!D275&lt;3,Sheet1!D275,"")</f>
-        <v>1.7149725</v>
-      </c>
-      <c r="E275">
-        <f>IF(Sheet1!E275&lt;2,Sheet1!E275,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" t="str">
-        <f>Sheet1!A276</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B276" t="str">
-        <f>Sheet1!B276</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C276">
-        <f>IF(Sheet1!C276&lt;4,Sheet1!C276,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="D276">
-        <f>IF(Sheet1!D276&lt;3,Sheet1!D276,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E276">
-        <f>IF(Sheet1!E276&lt;2,Sheet1!E276,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" t="str">
-        <f>Sheet1!A277</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B277" t="str">
-        <f>Sheet1!B277</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C277">
-        <f>IF(Sheet1!C277&lt;4,Sheet1!C277,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D277">
-        <f>IF(Sheet1!D277&lt;3,Sheet1!D277,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E277">
-        <f>IF(Sheet1!E277&lt;2,Sheet1!E277,"")</f>
-        <v>1.2290635999999999</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" t="str">
-        <f>Sheet1!A278</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B278" t="str">
-        <f>Sheet1!B278</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C278">
-        <f>IF(Sheet1!C278&lt;4,Sheet1!C278,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="D278">
-        <f>IF(Sheet1!D278&lt;3,Sheet1!D278,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E278">
-        <f>IF(Sheet1!E278&lt;2,Sheet1!E278,"")</f>
-        <v>1.2290635999999999</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" t="str">
-        <f>Sheet1!A279</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B279" t="str">
-        <f>Sheet1!B279</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C279">
-        <f>IF(Sheet1!C279&lt;4,Sheet1!C279,"")</f>
-        <v>2.1437156000000002</v>
-      </c>
-      <c r="D279">
-        <f>IF(Sheet1!D279&lt;3,Sheet1!D279,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E279">
-        <f>IF(Sheet1!E279&lt;2,Sheet1!E279,"")</f>
-        <v>1.2290635999999999</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" t="str">
-        <f>Sheet1!A280</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B280" t="str">
-        <f>Sheet1!B280</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C280">
-        <f>IF(Sheet1!C280&lt;4,Sheet1!C280,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D280">
-        <f>IF(Sheet1!D280&lt;3,Sheet1!D280,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E280">
-        <f>IF(Sheet1!E280&lt;2,Sheet1!E280,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" t="str">
-        <f>Sheet1!A281</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B281" t="str">
-        <f>Sheet1!B281</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C281">
-        <f>IF(Sheet1!C281&lt;4,Sheet1!C281,"")</f>
-        <v>2.0293841000000001</v>
-      </c>
-      <c r="D281">
-        <f>IF(Sheet1!D281&lt;3,Sheet1!D281,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E281">
-        <f>IF(Sheet1!E281&lt;2,Sheet1!E281,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" t="str">
-        <f>Sheet1!A282</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B282" t="str">
-        <f>Sheet1!B282</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C282">
-        <f>IF(Sheet1!C282&lt;4,Sheet1!C282,"")</f>
-        <v>2.0579672000000002</v>
-      </c>
-      <c r="D282">
-        <f>IF(Sheet1!D282&lt;3,Sheet1!D282,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E282">
-        <f>IF(Sheet1!E282&lt;2,Sheet1!E282,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" t="str">
-        <f>Sheet1!A283</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B283" t="str">
-        <f>Sheet1!B283</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C283">
-        <f>IF(Sheet1!C283&lt;4,Sheet1!C283,"")</f>
-        <v>2.0293841000000001</v>
-      </c>
-      <c r="D283">
-        <f>IF(Sheet1!D283&lt;3,Sheet1!D283,"")</f>
-        <v>1.6578069</v>
-      </c>
-      <c r="E283">
-        <f>IF(Sheet1!E283&lt;2,Sheet1!E283,"")</f>
-        <v>1.0289836000000001</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" t="str">
-        <f>Sheet1!A284</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B284" t="str">
-        <f>Sheet1!B284</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C284">
-        <f>IF(Sheet1!C284&lt;4,Sheet1!C284,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D284">
-        <f>IF(Sheet1!D284&lt;3,Sheet1!D284,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E284">
-        <f>IF(Sheet1!E284&lt;2,Sheet1!E284,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" t="str">
-        <f>Sheet1!A285</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B285" t="str">
-        <f>Sheet1!B285</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C285">
-        <f>IF(Sheet1!C285&lt;4,Sheet1!C285,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D285">
-        <f>IF(Sheet1!D285&lt;3,Sheet1!D285,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E285">
-        <f>IF(Sheet1!E285&lt;2,Sheet1!E285,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" t="str">
-        <f>Sheet1!A286</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B286" t="str">
-        <f>Sheet1!B286</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C286">
-        <f>IF(Sheet1!C286&lt;4,Sheet1!C286,"")</f>
-        <v>1.9722185000000001</v>
-      </c>
-      <c r="D286">
-        <f>IF(Sheet1!D286&lt;3,Sheet1!D286,"")</f>
-        <v>1.6863897000000001</v>
-      </c>
-      <c r="E286">
-        <f>IF(Sheet1!E286&lt;2,Sheet1!E286,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" t="str">
-        <f>Sheet1!A287</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B287" t="str">
-        <f>Sheet1!B287</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C287">
-        <f>IF(Sheet1!C287&lt;4,Sheet1!C287,"")</f>
-        <v>1.8864696999999999</v>
-      </c>
-      <c r="D287">
-        <f>IF(Sheet1!D287&lt;3,Sheet1!D287,"")</f>
-        <v>1.7435554</v>
-      </c>
-      <c r="E287">
-        <f>IF(Sheet1!E287&lt;2,Sheet1!E287,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" t="str">
-        <f>Sheet1!A288</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B288" t="str">
-        <f>Sheet1!B288</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C288">
-        <f>IF(Sheet1!C288&lt;4,Sheet1!C288,"")</f>
-        <v>1.8578870000000001</v>
-      </c>
-      <c r="D288">
-        <f>IF(Sheet1!D288&lt;3,Sheet1!D288,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E288">
-        <f>IF(Sheet1!E288&lt;2,Sheet1!E288,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" t="str">
-        <f>Sheet1!A289</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B289" t="str">
-        <f>Sheet1!B289</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C289">
-        <f>IF(Sheet1!C289&lt;4,Sheet1!C289,"")</f>
-        <v>2.0293841000000001</v>
-      </c>
-      <c r="D289">
-        <f>IF(Sheet1!D289&lt;3,Sheet1!D289,"")</f>
-        <v>2.3437958000000001</v>
-      </c>
-      <c r="E289">
-        <f>IF(Sheet1!E289&lt;2,Sheet1!E289,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" t="str">
-        <f>Sheet1!A290</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B290" t="str">
-        <f>Sheet1!B290</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C290">
-        <f>IF(Sheet1!C290&lt;4,Sheet1!C290,"")</f>
-        <v>2.0293841000000001</v>
-      </c>
-      <c r="D290">
-        <f>IF(Sheet1!D290&lt;3,Sheet1!D290,"")</f>
-        <v>2.2580472999999999</v>
-      </c>
-      <c r="E290">
-        <f>IF(Sheet1!E290&lt;2,Sheet1!E290,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" t="str">
-        <f>Sheet1!A291</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B291" t="str">
-        <f>Sheet1!B291</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C291">
-        <f>IF(Sheet1!C291&lt;4,Sheet1!C291,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D291">
-        <f>IF(Sheet1!D291&lt;3,Sheet1!D291,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E291">
-        <f>IF(Sheet1!E291&lt;2,Sheet1!E291,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" t="str">
-        <f>Sheet1!A292</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B292" t="str">
-        <f>Sheet1!B292</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C292">
-        <f>IF(Sheet1!C292&lt;4,Sheet1!C292,"")</f>
-        <v>1.9150526999999999</v>
-      </c>
-      <c r="D292">
-        <f>IF(Sheet1!D292&lt;3,Sheet1!D292,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E292">
-        <f>IF(Sheet1!E292&lt;2,Sheet1!E292,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" t="str">
-        <f>Sheet1!A293</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B293" t="str">
-        <f>Sheet1!B293</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C293">
-        <f>IF(Sheet1!C293&lt;4,Sheet1!C293,"")</f>
-        <v>2.0293841000000001</v>
-      </c>
-      <c r="D293">
-        <f>IF(Sheet1!D293&lt;3,Sheet1!D293,"")</f>
-        <v>1.600641</v>
-      </c>
-      <c r="E293">
-        <f>IF(Sheet1!E293&lt;2,Sheet1!E293,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" t="str">
-        <f>Sheet1!A294</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B294" t="str">
-        <f>Sheet1!B294</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C294">
-        <f>IF(Sheet1!C294&lt;4,Sheet1!C294,"")</f>
-        <v>2.0293841000000001</v>
-      </c>
-      <c r="D294">
-        <f>IF(Sheet1!D294&lt;3,Sheet1!D294,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E294">
-        <f>IF(Sheet1!E294&lt;2,Sheet1!E294,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" t="str">
-        <f>Sheet1!A295</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B295" t="str">
-        <f>Sheet1!B295</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C295">
-        <f>IF(Sheet1!C295&lt;4,Sheet1!C295,"")</f>
-        <v>2.0865499999999999</v>
-      </c>
-      <c r="D295">
-        <f>IF(Sheet1!D295&lt;3,Sheet1!D295,"")</f>
-        <v>1.5434753000000001</v>
-      </c>
-      <c r="E295">
-        <f>IF(Sheet1!E295&lt;2,Sheet1!E295,"")</f>
-        <v>1.1433150999999999</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" t="str">
-        <f>Sheet1!A296</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B296" t="str">
-        <f>Sheet1!B296</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C296">
-        <f>IF(Sheet1!C296&lt;4,Sheet1!C296,"")</f>
-        <v>1.9436355999999999</v>
-      </c>
-      <c r="D296">
-        <f>IF(Sheet1!D296&lt;3,Sheet1!D296,"")</f>
-        <v>1.4863095</v>
-      </c>
-      <c r="E296">
-        <f>IF(Sheet1!E296&lt;2,Sheet1!E296,"")</f>
-        <v>1.1147320999999999</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" t="str">
-        <f>Sheet1!A297</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B297" t="str">
-        <f>Sheet1!B297</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C297">
-        <f>IF(Sheet1!C297&lt;4,Sheet1!C297,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D297">
-        <f>IF(Sheet1!D297&lt;3,Sheet1!D297,"")</f>
-        <v>1.629224</v>
-      </c>
-      <c r="E297" t="str">
-        <f>IF(Sheet1!E297&lt;2,Sheet1!E297,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" t="str">
-        <f>Sheet1!A298</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B298" t="str">
-        <f>Sheet1!B298</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C298">
-        <f>IF(Sheet1!C298&lt;4,Sheet1!C298,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D298">
-        <f>IF(Sheet1!D298&lt;3,Sheet1!D298,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E298" t="str">
-        <f>IF(Sheet1!E298&lt;2,Sheet1!E298,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" t="str">
-        <f>Sheet1!A299</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B299" t="str">
-        <f>Sheet1!B299</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C299">
-        <f>IF(Sheet1!C299&lt;4,Sheet1!C299,"")</f>
-        <v>2.2008814999999999</v>
-      </c>
-      <c r="D299">
-        <f>IF(Sheet1!D299&lt;3,Sheet1!D299,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E299">
-        <f>IF(Sheet1!E299&lt;2,Sheet1!E299,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" t="str">
-        <f>Sheet1!A300</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B300" t="str">
-        <f>Sheet1!B300</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C300">
-        <f>IF(Sheet1!C300&lt;4,Sheet1!C300,"")</f>
-        <v>2.1437156000000002</v>
-      </c>
-      <c r="D300">
-        <f>IF(Sheet1!D300&lt;3,Sheet1!D300,"")</f>
-        <v>1.5720582000000001</v>
-      </c>
-      <c r="E300">
-        <f>IF(Sheet1!E300&lt;2,Sheet1!E300,"")</f>
-        <v>1.0575664</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" t="str">
-        <f>Sheet1!A301</f>
-        <v>iPhone 11 - iPhone SE</v>
-      </c>
-      <c r="B301" t="str">
-        <f>Sheet1!B301</f>
-        <v>Other Pocket to Speaker</v>
-      </c>
-      <c r="C301">
-        <f>IF(Sheet1!C301&lt;4,Sheet1!C301,"")</f>
-        <v>2.0008013</v>
-      </c>
-      <c r="D301">
-        <f>IF(Sheet1!D301&lt;3,Sheet1!D301,"")</f>
-        <v>1.5148925</v>
-      </c>
-      <c r="E301">
-        <f>IF(Sheet1!E301&lt;2,Sheet1!E301,"")</f>
-        <v>1.0861491999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>